--- a/data/correlation_05182020.xlsx
+++ b/data/correlation_05182020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyin/Dropbox (CSU Fullerton)/Research/ChemStatsResearch/Chem Stats R code/solid-state-chemistry/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF2619A-A8D2-1349-83A2-DBEFE46F4BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{111232E1-550C-EE49-A41F-81E5031B9651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="correlation" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -720,11 +721,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1079,217 +1084,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BN66"/>
+      <selection activeCell="F27" sqref="F27:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="4.83203125" style="2"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="2" customWidth="1"/>
+    <col min="3" max="66" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="4.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:66" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>0.59023119470441299</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1696,7 @@
         <v>1.3684692513472201E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1889,7 +1896,7 @@
         <v>-0.200498686665674</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2093,199 +2100,199 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.181508732248961</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>-3.4264309967309399E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0.12801441144115799</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.109582674875613</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>2.5164645270150401E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>9.5301742931425501E-2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <v>9.6700440262433296E-2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <v>-7.0747738555487799E-2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="5">
         <v>-8.4035922566691804E-2</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="5">
         <v>-4.0160557348571102E-2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="5">
         <v>-0.63210130995818103</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="5">
         <v>-0.63159422936812004</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="5">
         <v>-4.6018166788294901E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="5">
         <v>-5.8032668010564899E-2</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="5">
         <v>5.2008294782508499E-2</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="5">
         <v>-0.66882803950648395</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="5">
         <v>-0.65555928662270702</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="5">
         <v>5.1936600533242297E-2</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="5">
         <v>-3.8035600840230901E-2</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="5">
         <v>-5.0186526915320197E-2</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="5">
         <v>0.64770463405716505</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="5">
         <v>-6.6224635170520296E-2</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="5">
         <v>0.116365745540461</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="5">
         <v>0.12539371094731599</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="5">
         <v>0.88051455479892304</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="5">
         <v>-0.149570789996887</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="5">
         <v>0.106649959475463</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
         <v>0.109599930119178</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="5">
         <v>-0.78344520286310604</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="5">
         <v>-4.8113087670193198E-2</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="5">
         <v>-9.4704907236202299E-2</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH6" s="5">
         <v>-0.102127488503428</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="5">
         <v>0.10765834485621301</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="5">
         <v>9.0370208975030203E-2</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AK6" s="5">
         <v>5.8025204755333702E-2</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL6" s="5">
         <v>-4.8243959226325697E-2</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="5">
         <v>-0.19495791566854301</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="5">
         <v>-0.193057524933677</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="5">
         <v>-0.31289979433392801</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="5">
         <v>0.13736803826843899</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="5">
         <v>0.149120440878098</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AR6" s="5">
         <v>0.14226805913860299</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AS6" s="5">
         <v>0.67717994513024904</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AT6" s="5">
         <v>-5.0822635078839599E-2</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AU6" s="5">
         <v>3.5030750702887102E-2</v>
       </c>
-      <c r="AV6" s="3">
+      <c r="AV6" s="5">
         <v>4.1263038945569097E-2</v>
       </c>
-      <c r="AW6" s="3">
+      <c r="AW6" s="5">
         <v>6.5976924387056796E-2</v>
       </c>
-      <c r="AX6" s="3">
+      <c r="AX6" s="5">
         <v>-9.6203275674504193E-2</v>
       </c>
-      <c r="AY6" s="3">
+      <c r="AY6" s="5">
         <v>7.6958873637163999E-2</v>
       </c>
-      <c r="AZ6" s="3">
+      <c r="AZ6" s="5">
         <v>7.9400825383939902E-2</v>
       </c>
-      <c r="BA6" s="3">
+      <c r="BA6" s="5">
         <v>6.2366639649472901E-2</v>
       </c>
-      <c r="BB6" s="3">
+      <c r="BB6" s="5">
         <v>-5.7709509441494701E-2</v>
       </c>
-      <c r="BC6" s="3">
+      <c r="BC6" s="5">
         <v>-1.3423429511162901E-2</v>
       </c>
-      <c r="BD6" s="3">
+      <c r="BD6" s="5">
         <v>-9.4740002363629203E-3</v>
       </c>
-      <c r="BE6" s="3">
+      <c r="BE6" s="5">
         <v>-0.37713824526305001</v>
       </c>
-      <c r="BF6" s="3">
+      <c r="BF6" s="5">
         <v>4.6974408876114003E-2</v>
       </c>
-      <c r="BG6" s="3">
+      <c r="BG6" s="5">
         <v>-1.7733518882165799E-2</v>
       </c>
-      <c r="BH6" s="3">
+      <c r="BH6" s="5">
         <v>-1.26819440972839E-2</v>
       </c>
-      <c r="BI6" s="3">
+      <c r="BI6" s="5">
         <v>-9.8623893139455798E-2</v>
       </c>
-      <c r="BJ6" s="3">
+      <c r="BJ6" s="5">
         <v>-1.5716264363864799E-3</v>
       </c>
-      <c r="BK6" s="3">
+      <c r="BK6" s="5">
         <v>-7.7576227100991699E-2</v>
       </c>
-      <c r="BL6" s="3">
+      <c r="BL6" s="5">
         <v>-0.57582260244761696</v>
       </c>
-      <c r="BM6" s="3">
+      <c r="BM6" s="5">
         <v>0.25899342540652798</v>
       </c>
-      <c r="BN6" s="3">
+      <c r="BN6" s="5">
         <v>0.32901378342792298</v>
       </c>
     </row>
@@ -2293,199 +2300,199 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>0.23822965134063301</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>0.18438919543392299</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>-4.7967630144148003E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>-3.5649245353155799E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>2.5164645270150401E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>0.12624021869221599</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <v>0.12550934700571301</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>-0.147140821677266</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>-0.13915555690558801</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="5">
         <v>0.210517795199818</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="5">
         <v>-4.30642601529731E-2</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="5">
         <v>-4.3081212697502397E-2</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="5">
         <v>-0.14667141550041199</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="5">
         <v>-0.139559061704121</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="5">
         <v>8.6307123510694098E-2</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="5">
         <v>2.7688587496952601E-2</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="5">
         <v>1.38477955402104E-2</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="5">
         <v>8.4659816259462201E-2</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="5">
         <v>-0.13744418699271699</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="5">
         <v>-0.130158759087661</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="5">
         <v>9.3146039122934399E-3</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="5">
         <v>0.64359239045500904</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="5">
         <v>6.5544754170289599E-2</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="5">
         <v>6.00592919825092E-2</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="5">
         <v>6.8064812120800802E-2</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="5">
         <v>0.31765283036344599</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="5">
         <v>0.107989313425185</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="5">
         <v>0.106404165567204</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="5">
         <v>-2.1754690867079401E-2</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF7" s="5">
         <v>-0.91281103062430202</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG7" s="5">
         <v>-8.3462546433605497E-2</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AH7" s="5">
         <v>-7.9273503874083204E-2</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7" s="5">
         <v>0.210377360384704</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="5">
         <v>0.21854549175207699</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK7" s="5">
         <v>-6.22131194088449E-2</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL7" s="5">
         <v>-0.72421313305824198</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="5">
         <v>-0.132061172000009</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="5">
         <v>-0.133568506661285</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="5">
         <v>-6.6294296614434201E-2</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP7" s="5">
         <v>0.56747960216432103</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="5">
         <v>9.1941827053588596E-2</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AR7" s="5">
         <v>9.5553302687365296E-2</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AS7" s="5">
         <v>2.58377232696839E-2</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AT7" s="5">
         <v>-9.6831473143440303E-2</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AU7" s="5">
         <v>0.182362251584162</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AV7" s="5">
         <v>0.178752013774267</v>
       </c>
-      <c r="AW7" s="3">
+      <c r="AW7" s="5">
         <v>-0.170549216577634</v>
       </c>
-      <c r="AX7" s="3">
+      <c r="AX7" s="5">
         <v>-0.65396835092021199</v>
       </c>
-      <c r="AY7" s="3">
+      <c r="AY7" s="5">
         <v>0.177040955421218</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="AZ7" s="5">
         <v>0.175350738909619</v>
       </c>
-      <c r="BA7" s="3">
+      <c r="BA7" s="5">
         <v>-0.137585275426576</v>
       </c>
-      <c r="BB7" s="3">
+      <c r="BB7" s="5">
         <v>-0.68011952162056699</v>
       </c>
-      <c r="BC7" s="3">
+      <c r="BC7" s="5">
         <v>8.0503327432163305E-2</v>
       </c>
-      <c r="BD7" s="3">
+      <c r="BD7" s="5">
         <v>7.7957563245515102E-2</v>
       </c>
-      <c r="BE7" s="3">
+      <c r="BE7" s="5">
         <v>-0.112918304046923</v>
       </c>
-      <c r="BF7" s="3">
+      <c r="BF7" s="5">
         <v>-0.11060685065560499</v>
       </c>
-      <c r="BG7" s="3">
+      <c r="BG7" s="5">
         <v>8.2059514249849794E-2</v>
       </c>
-      <c r="BH7" s="3">
+      <c r="BH7" s="5">
         <v>7.8855085913221698E-2</v>
       </c>
-      <c r="BI7" s="3">
+      <c r="BI7" s="5">
         <v>-0.18391362160932601</v>
       </c>
-      <c r="BJ7" s="3">
+      <c r="BJ7" s="5">
         <v>-0.36097560536478102</v>
       </c>
-      <c r="BK7" s="3">
+      <c r="BK7" s="5">
         <v>-0.143529367364085</v>
       </c>
-      <c r="BL7" s="3">
+      <c r="BL7" s="5">
         <v>7.7030825113742901E-2</v>
       </c>
-      <c r="BM7" s="3">
+      <c r="BM7" s="5">
         <v>-0.17217175369773</v>
       </c>
-      <c r="BN7" s="3">
+      <c r="BN7" s="5">
         <v>0.10020238870070899</v>
       </c>
     </row>
@@ -2493,199 +2500,199 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>-4.1504648116362799E-2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>-0.428817370375773</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>-0.14017549305184299</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>-0.122890427320665</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>9.5301742931425501E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>0.12624021869221599</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>0.99989684604898799</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="5">
         <v>-0.80801692964801297</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <v>-0.79989588829875802</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="5">
         <v>0.15987398861254901</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="5">
         <v>-0.30510457919367701</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="5">
         <v>-0.30556151185285502</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="5">
         <v>-0.80157465582924903</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="5">
         <v>-0.79497393892810897</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="5">
         <v>0.22978290491040301</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="5">
         <v>-0.26381088945766301</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="5">
         <v>-0.27254089251033098</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="5">
         <v>0.23609833691457299</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="5">
         <v>-0.79792154789058101</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="5">
         <v>-0.79112654281482897</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="5">
         <v>1.0468534014060799E-2</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="5">
         <v>-0.176677562491345</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="5">
         <v>0.93871963139369397</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="5">
         <v>0.93458351038335796</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="5">
         <v>0.110833022495093</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="5">
         <v>-0.28450146438474599</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="5">
         <v>0.98538888834733096</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="5">
         <v>0.98504782167218097</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="5">
         <v>-6.7377651789282095E-2</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8" s="5">
         <v>-0.30440016567367001</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="5">
         <v>-0.89107765983452802</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AH8" s="5">
         <v>-0.88950843849612404</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8" s="5">
         <v>0.558328591413919</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AJ8" s="5">
         <v>0.56641407548381995</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AK8" s="5">
         <v>6.2770776009747606E-2</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AL8" s="5">
         <v>-0.39554504416047898</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AM8" s="5">
         <v>-0.18726784929276</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="5">
         <v>-0.189365350344503</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="5">
         <v>-0.110193975664931</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AP8" s="5">
         <v>0.40150926147754201</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AQ8" s="5">
         <v>0.87554836467923502</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AR8" s="5">
         <v>0.87667344234178302</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AS8" s="5">
         <v>-2.7247110548612698E-2</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AT8" s="5">
         <v>-0.47179850466909801</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AU8" s="5">
         <v>0.57658139873634595</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AV8" s="5">
         <v>0.57248348442340802</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AW8" s="5">
         <v>4.04141384221171E-2</v>
       </c>
-      <c r="AX8" s="3">
+      <c r="AX8" s="5">
         <v>-0.16519371962669199</v>
       </c>
-      <c r="AY8" s="3">
+      <c r="AY8" s="5">
         <v>0.46427029606310199</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="AZ8" s="5">
         <v>0.46187766678320302</v>
       </c>
-      <c r="BA8" s="3">
+      <c r="BA8" s="5">
         <v>2.9033810389963301E-2</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BB8" s="5">
         <v>-0.39650520808213302</v>
       </c>
-      <c r="BC8" s="3">
+      <c r="BC8" s="5">
         <v>2.36742876426526E-2</v>
       </c>
-      <c r="BD8" s="3">
+      <c r="BD8" s="5">
         <v>1.9998260356223999E-2</v>
       </c>
-      <c r="BE8" s="3">
+      <c r="BE8" s="5">
         <v>-5.8075711808489201E-2</v>
       </c>
-      <c r="BF8" s="3">
+      <c r="BF8" s="5">
         <v>0.499147265434013</v>
       </c>
-      <c r="BG8" s="3">
+      <c r="BG8" s="5">
         <v>0.37355174985943401</v>
       </c>
-      <c r="BH8" s="3">
+      <c r="BH8" s="5">
         <v>0.36982489699431198</v>
       </c>
-      <c r="BI8" s="3">
+      <c r="BI8" s="5">
         <v>-0.23596206056129901</v>
       </c>
-      <c r="BJ8" s="3">
+      <c r="BJ8" s="5">
         <v>-0.37763941598103301</v>
       </c>
-      <c r="BK8" s="3">
+      <c r="BK8" s="5">
         <v>-0.80605196654906197</v>
       </c>
-      <c r="BL8" s="3">
+      <c r="BL8" s="5">
         <v>-0.180212210601463</v>
       </c>
-      <c r="BM8" s="3">
+      <c r="BM8" s="5">
         <v>-0.63855296418224905</v>
       </c>
-      <c r="BN8" s="3">
+      <c r="BN8" s="5">
         <v>7.7361537775703093E-2</v>
       </c>
     </row>
@@ -2693,199 +2700,199 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>-4.3124383687299102E-2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>-0.42689673227685299</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>-0.13903605756989801</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>-0.12464820987354901</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>9.6700440262433296E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>0.12550934700571301</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>0.99989684604898799</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>-0.807385456021537</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>-0.80132664950143595</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="5">
         <v>0.15842787119761101</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="5">
         <v>-0.30600249419833397</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="5">
         <v>-0.30645535298818</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="5">
         <v>-0.80092004627033198</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="5">
         <v>-0.79619310016977995</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="5">
         <v>0.229717314376403</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="5">
         <v>-0.264819992279479</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="5">
         <v>-0.27359904031815502</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="5">
         <v>0.23600219676574699</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="5">
         <v>-0.79725830091842298</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="5">
         <v>-0.792365833061491</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="5">
         <v>1.24871508453988E-2</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="5">
         <v>-0.175819130179312</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="5">
         <v>0.93845358094015596</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="5">
         <v>0.93568098542268896</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="5">
         <v>0.112010970941212</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="5">
         <v>-0.286547602919839</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="5">
         <v>0.98520046906742997</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="5">
         <v>0.98529190873936101</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE9" s="5">
         <v>-6.95369659490504E-2</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="5">
         <v>-0.30307485907241699</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="5">
         <v>-0.89048740911291202</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AH9" s="5">
         <v>-0.89001679538463696</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="5">
         <v>0.55924528259899497</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ9" s="5">
         <v>0.56477086031990598</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AK9" s="5">
         <v>6.2375803876873699E-2</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AL9" s="5">
         <v>-0.39343789504134602</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM9" s="5">
         <v>-0.18818235812982501</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN9" s="5">
         <v>-0.18995036241861901</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="5">
         <v>-0.110621724283444</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AP9" s="5">
         <v>0.39995618178626302</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ9" s="5">
         <v>0.87589682869375196</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AR9" s="5">
         <v>0.876050254131015</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AS9" s="5">
         <v>-2.72953424833926E-2</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT9" s="5">
         <v>-0.46970578323712903</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="AU9" s="5">
         <v>0.576129999472347</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="AV9" s="5">
         <v>0.57300967945703396</v>
       </c>
-      <c r="AW9" s="3">
+      <c r="AW9" s="5">
         <v>4.2328933065528998E-2</v>
       </c>
-      <c r="AX9" s="3">
+      <c r="AX9" s="5">
         <v>-0.165171885443927</v>
       </c>
-      <c r="AY9" s="3">
+      <c r="AY9" s="5">
         <v>0.46469334489331598</v>
       </c>
-      <c r="AZ9" s="3">
+      <c r="AZ9" s="5">
         <v>0.46269289197197599</v>
       </c>
-      <c r="BA9" s="3">
+      <c r="BA9" s="5">
         <v>2.9148017400181699E-2</v>
       </c>
-      <c r="BB9" s="3">
+      <c r="BB9" s="5">
         <v>-0.39393633241119003</v>
       </c>
-      <c r="BC9" s="3">
+      <c r="BC9" s="5">
         <v>2.2868751303243499E-2</v>
       </c>
-      <c r="BD9" s="3">
+      <c r="BD9" s="5">
         <v>1.98252144946276E-2</v>
       </c>
-      <c r="BE9" s="3">
+      <c r="BE9" s="5">
         <v>-5.7167521615373897E-2</v>
       </c>
-      <c r="BF9" s="3">
+      <c r="BF9" s="5">
         <v>0.49762920764333801</v>
       </c>
-      <c r="BG9" s="3">
+      <c r="BG9" s="5">
         <v>0.37284899235157398</v>
       </c>
-      <c r="BH9" s="3">
+      <c r="BH9" s="5">
         <v>0.36993438389389599</v>
       </c>
-      <c r="BI9" s="3">
+      <c r="BI9" s="5">
         <v>-0.233916737129822</v>
       </c>
-      <c r="BJ9" s="3">
+      <c r="BJ9" s="5">
         <v>-0.37354287899477201</v>
       </c>
-      <c r="BK9" s="3">
+      <c r="BK9" s="5">
         <v>-0.80645010705340103</v>
       </c>
-      <c r="BL9" s="3">
+      <c r="BL9" s="5">
         <v>-0.18178746703471799</v>
       </c>
-      <c r="BM9" s="3">
+      <c r="BM9" s="5">
         <v>-0.63803289472632296</v>
       </c>
-      <c r="BN9" s="3">
+      <c r="BN9" s="5">
         <v>7.6132127798311203E-2</v>
       </c>
     </row>
@@ -2893,199 +2900,199 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>-2.3403141419612399E-2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>0.41883805634412702</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.56777770285858498</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>0.54507111502471794</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>-7.0747738555487799E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>-0.147140821677266</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>-0.80801692964801297</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <v>-0.807385456021537</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="5">
         <v>0.98966371646328499</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="5">
         <v>-0.29036512602312098</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="5">
         <v>0.32979095160916999</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="5">
         <v>0.330641270965359</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="5">
         <v>0.99014704866853398</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="5">
         <v>0.98170800111013601</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="5">
         <v>-0.334019244446633</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="5">
         <v>0.28498373707230301</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="5">
         <v>0.291448877440316</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="5">
         <v>-0.34283557515109198</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="5">
         <v>0.99157377797496005</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="5">
         <v>0.98292290983269404</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="5">
         <v>2.0079342918113301E-2</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="5">
         <v>0.23862348998558</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="5">
         <v>-0.80493470985405302</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="5">
         <v>-0.798160016892969</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="5">
         <v>-0.10162223728525099</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="5">
         <v>0.31483863068451801</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="5">
         <v>-0.78600548267408199</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="5">
         <v>-0.78455758409584098</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="5">
         <v>1.9773124714026799E-2</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="5">
         <v>0.319182977730393</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG10" s="5">
         <v>0.86631447225768798</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AH10" s="5">
         <v>0.86292309985117299</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI10" s="5">
         <v>-0.43881643985090801</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ10" s="5">
         <v>-0.45226838347100601</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AK10" s="5">
         <v>-0.11349532493207</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AL10" s="5">
         <v>0.45371731795468401</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AM10" s="5">
         <v>0.13860132298559699</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="5">
         <v>0.14116215781472</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AO10" s="5">
         <v>0.19604725219158001</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AP10" s="5">
         <v>-0.39909325616997698</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AQ10" s="5">
         <v>-0.48184108282187299</v>
       </c>
-      <c r="AR10" s="3">
+      <c r="AR10" s="5">
         <v>-0.48649982118919599</v>
       </c>
-      <c r="AS10" s="3">
+      <c r="AS10" s="5">
         <v>7.8326872312573497E-3</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="AT10" s="5">
         <v>0.49646210853911898</v>
       </c>
-      <c r="AU10" s="3">
+      <c r="AU10" s="5">
         <v>-0.87052793809265505</v>
       </c>
-      <c r="AV10" s="3">
+      <c r="AV10" s="5">
         <v>-0.865766724931611</v>
       </c>
-      <c r="AW10" s="3">
+      <c r="AW10" s="5">
         <v>-0.111557851626922</v>
       </c>
-      <c r="AX10" s="3">
+      <c r="AX10" s="5">
         <v>0.199661269489259</v>
       </c>
-      <c r="AY10" s="3">
+      <c r="AY10" s="5">
         <v>-0.52356612493327503</v>
       </c>
-      <c r="AZ10" s="3">
+      <c r="AZ10" s="5">
         <v>-0.52056110811920997</v>
       </c>
-      <c r="BA10" s="3">
+      <c r="BA10" s="5">
         <v>-9.76913159016502E-2</v>
       </c>
-      <c r="BB10" s="3">
+      <c r="BB10" s="5">
         <v>0.440669031916465</v>
       </c>
-      <c r="BC10" s="3">
+      <c r="BC10" s="5">
         <v>-0.38800338954456398</v>
       </c>
-      <c r="BD10" s="3">
+      <c r="BD10" s="5">
         <v>-0.38393201560909901</v>
       </c>
-      <c r="BE10" s="3">
+      <c r="BE10" s="5">
         <v>7.8959370666787196E-2</v>
       </c>
-      <c r="BF10" s="3">
+      <c r="BF10" s="5">
         <v>-0.55612438711530299</v>
       </c>
-      <c r="BG10" s="3">
+      <c r="BG10" s="5">
         <v>-0.40852055338632698</v>
       </c>
-      <c r="BH10" s="3">
+      <c r="BH10" s="5">
         <v>-0.40364528600348398</v>
       </c>
-      <c r="BI10" s="3">
+      <c r="BI10" s="5">
         <v>0.25708244161459298</v>
       </c>
-      <c r="BJ10" s="3">
+      <c r="BJ10" s="5">
         <v>0.37180126184998902</v>
       </c>
-      <c r="BK10" s="3">
+      <c r="BK10" s="5">
         <v>0.997425297063809</v>
       </c>
-      <c r="BL10" s="3">
+      <c r="BL10" s="5">
         <v>0.13070493838543101</v>
       </c>
-      <c r="BM10" s="3">
+      <c r="BM10" s="5">
         <v>0.83695772542101499</v>
       </c>
-      <c r="BN10" s="3">
+      <c r="BN10" s="5">
         <v>-0.13772877755402299</v>
       </c>
     </row>
@@ -3093,199 +3100,199 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>-7.7716679074506202E-3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>0.39693772754211698</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0.55762240226770998</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.56398326759009898</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>-8.4035922566691804E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>-0.13915555690558801</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>-0.79989588829875802</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="5">
         <v>-0.80132664950143595</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="5">
         <v>0.98966371646328499</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="5">
         <v>-0.275556734944576</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="5">
         <v>0.33702227869909701</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="5">
         <v>0.33783096796328999</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="5">
         <v>0.97960205478281603</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="5">
         <v>0.98994242364076901</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="5">
         <v>-0.33246484931586701</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="5">
         <v>0.29356391680607102</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="5">
         <v>0.300454987219199</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="5">
         <v>-0.34094903983207397</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="5">
         <v>0.98098982830117898</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="5">
         <v>0.99140730476111005</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="5">
         <v>9.6961712547489798E-5</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="5">
         <v>0.22925426768344401</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="5">
         <v>-0.795846961834074</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="5">
         <v>-0.80272736812156897</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="5">
         <v>-0.112681898651546</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="5">
         <v>0.33371285799549699</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="5">
         <v>-0.77708462799092304</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="5">
         <v>-0.77996079353180503</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11" s="5">
         <v>4.0729618905337099E-2</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF11" s="5">
         <v>0.30412551113999198</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG11" s="5">
         <v>0.85481267699602004</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AH11" s="5">
         <v>0.86241403357498903</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11" s="5">
         <v>-0.44396968979315199</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ11" s="5">
         <v>-0.43178537970853798</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK11" s="5">
         <v>-0.10940770805592</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL11" s="5">
         <v>0.43049098027396898</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="5">
         <v>0.14636123489835101</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN11" s="5">
         <v>0.14561470291355899</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="5">
         <v>0.20007304285654201</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP11" s="5">
         <v>-0.38107553213391998</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ11" s="5">
         <v>-0.47800951101471501</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AR11" s="5">
         <v>-0.472956925789217</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AS11" s="5">
         <v>8.0522479044458709E-3</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AT11" s="5">
         <v>0.47274661891136799</v>
       </c>
-      <c r="AU11" s="3">
+      <c r="AU11" s="5">
         <v>-0.86391741726577098</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="AV11" s="5">
         <v>-0.86895938317697996</v>
       </c>
-      <c r="AW11" s="3">
+      <c r="AW11" s="5">
         <v>-0.130818421514836</v>
       </c>
-      <c r="AX11" s="3">
+      <c r="AX11" s="5">
         <v>0.198597776637264</v>
       </c>
-      <c r="AY11" s="3">
+      <c r="AY11" s="5">
         <v>-0.52523890002409002</v>
       </c>
-      <c r="AZ11" s="3">
+      <c r="AZ11" s="5">
         <v>-0.52616946645490803</v>
       </c>
-      <c r="BA11" s="3">
+      <c r="BA11" s="5">
         <v>-9.8993858554018696E-2</v>
       </c>
-      <c r="BB11" s="3">
+      <c r="BB11" s="5">
         <v>0.412748006735766</v>
       </c>
-      <c r="BC11" s="3">
+      <c r="BC11" s="5">
         <v>-0.38159290584557098</v>
       </c>
-      <c r="BD11" s="3">
+      <c r="BD11" s="5">
         <v>-0.38387051972391401</v>
       </c>
-      <c r="BE11" s="3">
+      <c r="BE11" s="5">
         <v>6.9618620256690605E-2</v>
       </c>
-      <c r="BF11" s="3">
+      <c r="BF11" s="5">
         <v>-0.53814983547944695</v>
       </c>
-      <c r="BG11" s="3">
+      <c r="BG11" s="5">
         <v>-0.39936659550617198</v>
       </c>
-      <c r="BH11" s="3">
+      <c r="BH11" s="5">
         <v>-0.40263543770079702</v>
       </c>
-      <c r="BI11" s="3">
+      <c r="BI11" s="5">
         <v>0.235272531229055</v>
       </c>
-      <c r="BJ11" s="3">
+      <c r="BJ11" s="5">
         <v>0.32846487969633698</v>
       </c>
-      <c r="BK11" s="3">
+      <c r="BK11" s="5">
         <v>0.99739983515494501</v>
       </c>
-      <c r="BL11" s="3">
+      <c r="BL11" s="5">
         <v>0.145115130963925</v>
       </c>
-      <c r="BM11" s="3">
+      <c r="BM11" s="5">
         <v>0.82880877882378701</v>
       </c>
-      <c r="BN11" s="3">
+      <c r="BN11" s="5">
         <v>-0.12525009969260201</v>
       </c>
     </row>
@@ -3293,199 +3300,199 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>0.26304508088829298</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>-3.4441922341251999E-2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>-0.216202953776234</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>-0.192943103583258</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>-4.0160557348571102E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>0.210517795199818</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="5">
         <v>0.15987398861254901</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="5">
         <v>0.15842787119761101</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="5">
         <v>-0.29036512602312098</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="5">
         <v>-0.275556734944576</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="5">
         <v>1</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="5">
         <v>-6.8202051619979998E-2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="5">
         <v>-6.8760600007166897E-2</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="5">
         <v>-0.28161195984431803</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="5">
         <v>-0.26839677130015199</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="5">
         <v>0.61901698219936097</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="5">
         <v>-8.0716387549171306E-2</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="5">
         <v>-0.105363866035646</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="5">
         <v>0.62397322524377896</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="5">
         <v>-0.28083670736904898</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="5">
         <v>-0.26738883737675001</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="5">
         <v>-7.9130735128758706E-2</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="5">
         <v>9.2924471454144605E-3</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="5">
         <v>0.204980272714366</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="5">
         <v>0.19509374673684701</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="5">
         <v>0.167928476525221</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="5">
         <v>0.20496595545023599</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="5">
         <v>0.17710996382649699</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="5">
         <v>0.17410070941099801</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE12" s="5">
         <v>9.1561215338631097E-2</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AF12" s="5">
         <v>-0.30417958010262702</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AG12" s="5">
         <v>-0.219488316576849</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AH12" s="5">
         <v>-0.21202877762077499</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AI12" s="5">
         <v>-1.8848660514789201E-3</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AJ12" s="5">
         <v>1.81770776863916E-2</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AK12" s="5">
         <v>0.25630355093080898</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AL12" s="5">
         <v>-0.36478988440058702</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AM12" s="5">
         <v>-2.7544482459061399E-2</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AN12" s="5">
         <v>-3.0165240792276001E-2</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AO12" s="5">
         <v>-0.22670513082733701</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AP12" s="5">
         <v>0.13025117005909601</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AQ12" s="5">
         <v>7.7483961782735603E-2</v>
       </c>
-      <c r="AR12" s="3">
+      <c r="AR12" s="5">
         <v>8.4705977531503093E-2</v>
       </c>
-      <c r="AS12" s="3">
+      <c r="AS12" s="5">
         <v>8.5646975733511599E-2</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="AT12" s="5">
         <v>-0.28617234126110802</v>
       </c>
-      <c r="AU12" s="3">
+      <c r="AU12" s="5">
         <v>0.205239737447137</v>
       </c>
-      <c r="AV12" s="3">
+      <c r="AV12" s="5">
         <v>0.19812624614153701</v>
       </c>
-      <c r="AW12" s="3">
+      <c r="AW12" s="5">
         <v>1.8184758892461801E-2</v>
       </c>
-      <c r="AX12" s="3">
+      <c r="AX12" s="5">
         <v>-0.29892968370054201</v>
       </c>
-      <c r="AY12" s="3">
+      <c r="AY12" s="5">
         <v>9.7223490053871195E-2</v>
       </c>
-      <c r="AZ12" s="3">
+      <c r="AZ12" s="5">
         <v>9.4119593835689797E-2</v>
       </c>
-      <c r="BA12" s="3">
+      <c r="BA12" s="5">
         <v>0.106592561350287</v>
       </c>
-      <c r="BB12" s="3">
+      <c r="BB12" s="5">
         <v>-0.40643961523447802</v>
       </c>
-      <c r="BC12" s="3">
+      <c r="BC12" s="5">
         <v>0.15994672810696201</v>
       </c>
-      <c r="BD12" s="3">
+      <c r="BD12" s="5">
         <v>0.155216055829066</v>
       </c>
-      <c r="BE12" s="3">
+      <c r="BE12" s="5">
         <v>-0.20003906151620901</v>
       </c>
-      <c r="BF12" s="3">
+      <c r="BF12" s="5">
         <v>-4.2458939757440702E-2</v>
       </c>
-      <c r="BG12" s="3">
+      <c r="BG12" s="5">
         <v>0.18832377282314999</v>
       </c>
-      <c r="BH12" s="3">
+      <c r="BH12" s="5">
         <v>0.18244829859320499</v>
       </c>
-      <c r="BI12" s="3">
+      <c r="BI12" s="5">
         <v>-0.1686630226617</v>
       </c>
-      <c r="BJ12" s="3">
+      <c r="BJ12" s="5">
         <v>-0.109428093263022</v>
       </c>
-      <c r="BK12" s="3">
+      <c r="BK12" s="5">
         <v>-0.28371320271616401</v>
       </c>
-      <c r="BL12" s="3">
+      <c r="BL12" s="5">
         <v>0.485408587648269</v>
       </c>
-      <c r="BM12" s="3">
+      <c r="BM12" s="5">
         <v>-0.51341010891090899</v>
       </c>
-      <c r="BN12" s="3">
+      <c r="BN12" s="5">
         <v>0.165787903836419</v>
       </c>
     </row>
@@ -3493,199 +3500,199 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>0.115233341252327</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>0.232051036585919</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>7.1437370987614702E-3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>1.4985028117425201E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>-0.63210130995818103</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>-4.30642601529731E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>-0.30510457919367701</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>-0.30600249419833397</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="5">
         <v>0.32979095160916999</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="5">
         <v>0.33702227869909701</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="5">
         <v>-6.8202051619979998E-2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="5">
         <v>1</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="5">
         <v>0.99999628321283196</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="5">
         <v>0.29844687925644803</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="5">
         <v>0.305181271305904</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="5">
         <v>-7.1500694543455895E-2</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="5">
         <v>0.92685600566677595</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="5">
         <v>0.94481009950845796</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="5">
         <v>-7.3801069544560699E-2</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="5">
         <v>0.30003330341051399</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="5">
         <v>0.30685256541654299</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="5">
         <v>-0.52462675916607704</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="5">
         <v>0.108481917588168</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="5">
         <v>-0.36755111659545597</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="5">
         <v>-0.372766804423111</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="5">
         <v>-0.56838099762471805</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="5">
         <v>0.391386286748651</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC13" s="5">
         <v>-0.305003980107101</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13" s="5">
         <v>-0.30685882026491701</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE13" s="5">
         <v>0.50348584120472095</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF13" s="5">
         <v>0.106786716168912</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG13" s="5">
         <v>0.294349265917414</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AH13" s="5">
         <v>0.29895466672653498</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AI13" s="5">
         <v>-0.231333349335755</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AJ13" s="5">
         <v>-0.22157728478944699</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AK13" s="5">
         <v>-0.36007246832553602</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AL13" s="5">
         <v>0.206652900100117</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AM13" s="5">
         <v>0.295804018922945</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AN13" s="5">
         <v>0.29516368094643097</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AO13" s="5">
         <v>0.57212001880204599</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AP13" s="5">
         <v>-0.25636231567807399</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AQ13" s="5">
         <v>-0.26929807203447598</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AR13" s="5">
         <v>-0.26526350436650398</v>
       </c>
-      <c r="AS13" s="3">
+      <c r="AS13" s="5">
         <v>-0.42331086684709801</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AT13" s="5">
         <v>0.23032117263027099</v>
       </c>
-      <c r="AU13" s="3">
+      <c r="AU13" s="5">
         <v>-0.22337264590315001</v>
       </c>
-      <c r="AV13" s="3">
+      <c r="AV13" s="5">
         <v>-0.226664392891995</v>
       </c>
-      <c r="AW13" s="3">
+      <c r="AW13" s="5">
         <v>-0.52074298640286498</v>
       </c>
-      <c r="AX13" s="3">
+      <c r="AX13" s="5">
         <v>0.168070649261991</v>
       </c>
-      <c r="AY13" s="3">
+      <c r="AY13" s="5">
         <v>-0.27563029088326002</v>
       </c>
-      <c r="AZ13" s="3">
+      <c r="AZ13" s="5">
         <v>-0.27663919426262201</v>
       </c>
-      <c r="BA13" s="3">
+      <c r="BA13" s="5">
         <v>-0.44046489465067001</v>
       </c>
-      <c r="BB13" s="3">
+      <c r="BB13" s="5">
         <v>0.19024025759664601</v>
       </c>
-      <c r="BC13" s="3">
+      <c r="BC13" s="5">
         <v>4.2358986314705603E-2</v>
       </c>
-      <c r="BD13" s="3">
+      <c r="BD13" s="5">
         <v>4.0705334087184401E-2</v>
       </c>
-      <c r="BE13" s="3">
+      <c r="BE13" s="5">
         <v>9.4344960463178695E-2</v>
       </c>
-      <c r="BF13" s="3">
+      <c r="BF13" s="5">
         <v>-0.34366414151705899</v>
       </c>
-      <c r="BG13" s="3">
+      <c r="BG13" s="5">
         <v>-1.7374423906810599E-2</v>
       </c>
-      <c r="BH13" s="3">
+      <c r="BH13" s="5">
         <v>-1.9633288729837599E-2</v>
       </c>
-      <c r="BI13" s="3">
+      <c r="BI13" s="5">
         <v>0.1668343534133</v>
       </c>
-      <c r="BJ13" s="3">
+      <c r="BJ13" s="5">
         <v>0.21758227548294001</v>
       </c>
-      <c r="BK13" s="3">
+      <c r="BK13" s="5">
         <v>0.33426260347873898</v>
       </c>
-      <c r="BL13" s="3">
+      <c r="BL13" s="5">
         <v>0.839145811568758</v>
       </c>
-      <c r="BM13" s="3">
+      <c r="BM13" s="5">
         <v>-0.168176728806255</v>
       </c>
-      <c r="BN13" s="3">
+      <c r="BN13" s="5">
         <v>-0.51219586081372603</v>
       </c>
     </row>
@@ -3693,199 +3700,199 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>0.114799889652703</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>0.232968193551536</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>8.7920098346020003E-3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>1.65652642077906E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>-0.63159422936812004</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>-4.3081212697502397E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5">
         <v>-0.30556151185285502</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>-0.30645535298818</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="5">
         <v>0.330641270965359</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="5">
         <v>0.33783096796328999</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="5">
         <v>-6.8760600007166897E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="5">
         <v>0.99999628321283196</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="5">
         <v>1</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="5">
         <v>0.299441501205229</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="5">
         <v>0.30613970345980002</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="5">
         <v>-7.1671504299545205E-2</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="5">
         <v>0.92688950230258405</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="5">
         <v>0.94486047081853397</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="5">
         <v>-7.3976950667039104E-2</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="5">
         <v>0.30101115789127397</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="5">
         <v>0.30779349229205499</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="5">
         <v>-0.52403461888639402</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="5">
         <v>0.10946018917719599</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="5">
         <v>-0.3680361991526</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="5">
         <v>-0.37322360788516501</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="5">
         <v>-0.56808085067337299</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="5">
         <v>0.39166495818112901</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="5">
         <v>-0.30544289651140699</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="5">
         <v>-0.30728911034038803</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="5">
         <v>0.50296266161645997</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF14" s="5">
         <v>0.107158817559391</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG14" s="5">
         <v>0.295211287708812</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AH14" s="5">
         <v>0.29979697198067501</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI14" s="5">
         <v>-0.2307795566087</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AJ14" s="5">
         <v>-0.22108682522834699</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AK14" s="5">
         <v>-0.36038335150921103</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL14" s="5">
         <v>0.20740943533723699</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AM14" s="5">
         <v>0.29468625983310398</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AN14" s="5">
         <v>0.29405228072640499</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AO14" s="5">
         <v>0.571565704124394</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AP14" s="5">
         <v>-0.25732609924948302</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ14" s="5">
         <v>-0.26904260422216802</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AR14" s="5">
         <v>-0.26503088178319201</v>
       </c>
-      <c r="AS14" s="3">
+      <c r="AS14" s="5">
         <v>-0.423415923429798</v>
       </c>
-      <c r="AT14" s="3">
+      <c r="AT14" s="5">
         <v>0.23125489911939601</v>
       </c>
-      <c r="AU14" s="3">
+      <c r="AU14" s="5">
         <v>-0.224426075098283</v>
       </c>
-      <c r="AV14" s="3">
+      <c r="AV14" s="5">
         <v>-0.22769909801204499</v>
       </c>
-      <c r="AW14" s="3">
+      <c r="AW14" s="5">
         <v>-0.52075534085884101</v>
       </c>
-      <c r="AX14" s="3">
+      <c r="AX14" s="5">
         <v>0.168102397718667</v>
       </c>
-      <c r="AY14" s="3">
+      <c r="AY14" s="5">
         <v>-0.27556997159246799</v>
       </c>
-      <c r="AZ14" s="3">
+      <c r="AZ14" s="5">
         <v>-0.27657018504682201</v>
       </c>
-      <c r="BA14" s="3">
+      <c r="BA14" s="5">
         <v>-0.440577481273567</v>
       </c>
-      <c r="BB14" s="3">
+      <c r="BB14" s="5">
         <v>0.19098698657443899</v>
       </c>
-      <c r="BC14" s="3">
+      <c r="BC14" s="5">
         <v>4.11491535795959E-2</v>
       </c>
-      <c r="BD14" s="3">
+      <c r="BD14" s="5">
         <v>3.9507652956945298E-2</v>
       </c>
-      <c r="BE14" s="3">
+      <c r="BE14" s="5">
         <v>9.3913619063655807E-2</v>
       </c>
-      <c r="BF14" s="3">
+      <c r="BF14" s="5">
         <v>-0.344912704206365</v>
       </c>
-      <c r="BG14" s="3">
+      <c r="BG14" s="5">
         <v>-1.87045352488052E-2</v>
       </c>
-      <c r="BH14" s="3">
+      <c r="BH14" s="5">
         <v>-2.09490538779405E-2</v>
       </c>
-      <c r="BI14" s="3">
+      <c r="BI14" s="5">
         <v>0.167076560946712</v>
       </c>
-      <c r="BJ14" s="3">
+      <c r="BJ14" s="5">
         <v>0.21799562053819299</v>
       </c>
-      <c r="BK14" s="3">
+      <c r="BK14" s="5">
         <v>0.33509431089299002</v>
       </c>
-      <c r="BL14" s="3">
+      <c r="BL14" s="5">
         <v>0.83883804729654798</v>
       </c>
-      <c r="BM14" s="3">
+      <c r="BM14" s="5">
         <v>-0.16726022917383901</v>
       </c>
-      <c r="BN14" s="3">
+      <c r="BN14" s="5">
         <v>-0.51292025318773404</v>
       </c>
     </row>
@@ -3893,199 +3900,199 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>-4.22136137378646E-2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>0.41089602710150203</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>0.62350054501459096</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>0.60044027417971502</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>-4.6018166788294901E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>-0.14667141550041199</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
         <v>-0.80157465582924903</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="5">
         <v>-0.80092004627033198</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="5">
         <v>0.99014704866853398</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="5">
         <v>0.97960205478281603</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="5">
         <v>-0.28161195984431803</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="5">
         <v>0.29844687925644803</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="5">
         <v>0.299441501205229</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="5">
         <v>1</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="5">
         <v>0.99146943225161499</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="5">
         <v>-0.34512698107138401</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="5">
         <v>0.25192971171251199</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="5">
         <v>0.25827257756701999</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="5">
         <v>-0.35391880461055703</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="5">
         <v>0.99751217374364498</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="5">
         <v>0.98874602668382905</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="5">
         <v>3.8253701091098297E-2</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="5">
         <v>0.23825090511872399</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="5">
         <v>-0.784035901178885</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="5">
         <v>-0.77706945256852</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="5">
         <v>-7.9581724534683707E-2</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="5">
         <v>0.30061359500580098</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="5">
         <v>-0.77021112641451905</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="5">
         <v>-0.76869446143338505</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AE15" s="5">
         <v>3.6841901265963701E-3</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AF15" s="5">
         <v>0.31910524130580298</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AG15" s="5">
         <v>0.86469437008818895</v>
       </c>
-      <c r="AH15" s="3">
+      <c r="AH15" s="5">
         <v>0.86120866131468099</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AI15" s="5">
         <v>-0.41626056675636502</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AJ15" s="5">
         <v>-0.430186810215263</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AK15" s="5">
         <v>-0.110293560317201</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AL15" s="5">
         <v>0.450583174889086</v>
       </c>
-      <c r="AM15" s="3">
+      <c r="AM15" s="5">
         <v>6.4410772770456204E-2</v>
       </c>
-      <c r="AN15" s="3">
+      <c r="AN15" s="5">
         <v>6.6932942013730304E-2</v>
       </c>
-      <c r="AO15" s="3">
+      <c r="AO15" s="5">
         <v>0.14880664432035501</v>
       </c>
-      <c r="AP15" s="3">
+      <c r="AP15" s="5">
         <v>-0.40722806164705599</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AQ15" s="5">
         <v>-0.45232794255246001</v>
       </c>
-      <c r="AR15" s="3">
+      <c r="AR15" s="5">
         <v>-0.457215518332519</v>
       </c>
-      <c r="AS15" s="3">
+      <c r="AS15" s="5">
         <v>5.22550492855636E-3</v>
       </c>
-      <c r="AT15" s="3">
+      <c r="AT15" s="5">
         <v>0.49547310746935902</v>
       </c>
-      <c r="AU15" s="3">
+      <c r="AU15" s="5">
         <v>-0.87272260460871698</v>
       </c>
-      <c r="AV15" s="3">
+      <c r="AV15" s="5">
         <v>-0.86789170962655804</v>
       </c>
-      <c r="AW15" s="3">
+      <c r="AW15" s="5">
         <v>-8.2724368523477101E-2</v>
       </c>
-      <c r="AX15" s="3">
+      <c r="AX15" s="5">
         <v>0.212369245722211</v>
       </c>
-      <c r="AY15" s="3">
+      <c r="AY15" s="5">
         <v>-0.50649452186450405</v>
       </c>
-      <c r="AZ15" s="3">
+      <c r="AZ15" s="5">
         <v>-0.50346255008569996</v>
       </c>
-      <c r="BA15" s="3">
+      <c r="BA15" s="5">
         <v>-8.1939002515899001E-2</v>
       </c>
-      <c r="BB15" s="3">
+      <c r="BB15" s="5">
         <v>0.44551908811060797</v>
       </c>
-      <c r="BC15" s="3">
+      <c r="BC15" s="5">
         <v>-0.41381625161165198</v>
       </c>
-      <c r="BD15" s="3">
+      <c r="BD15" s="5">
         <v>-0.40973643881017602</v>
       </c>
-      <c r="BE15" s="3">
+      <c r="BE15" s="5">
         <v>6.8184277178159197E-2</v>
       </c>
-      <c r="BF15" s="3">
+      <c r="BF15" s="5">
         <v>-0.54557383578132401</v>
       </c>
-      <c r="BG15" s="3">
+      <c r="BG15" s="5">
         <v>-0.43622547279477503</v>
       </c>
-      <c r="BH15" s="3">
+      <c r="BH15" s="5">
         <v>-0.43136447555337498</v>
       </c>
-      <c r="BI15" s="3">
+      <c r="BI15" s="5">
         <v>0.23675237295719001</v>
       </c>
-      <c r="BJ15" s="3">
+      <c r="BJ15" s="5">
         <v>0.35937069684502998</v>
       </c>
-      <c r="BK15" s="3">
+      <c r="BK15" s="5">
         <v>0.98744241722692905</v>
       </c>
-      <c r="BL15" s="3">
+      <c r="BL15" s="5">
         <v>0.108009268036822</v>
       </c>
-      <c r="BM15" s="3">
+      <c r="BM15" s="5">
         <v>0.84013359004446897</v>
       </c>
-      <c r="BN15" s="3">
+      <c r="BN15" s="5">
         <v>-0.14070906271231301</v>
       </c>
     </row>
@@ -4093,199 +4100,199 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>-2.8131759761386502E-2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>0.39136866707824403</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>0.61514912908515795</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>0.61848578513674601</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>-5.8032668010564899E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>-0.139559061704121</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="5">
         <v>-0.79497393892810897</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="5">
         <v>-0.79619310016977995</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="5">
         <v>0.98170800111013601</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="5">
         <v>0.98994242364076901</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="5">
         <v>-0.26839677130015199</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="5">
         <v>0.305181271305904</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="5">
         <v>0.30613970345980002</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="5">
         <v>0.99146943225161499</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="5">
         <v>1</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="5">
         <v>-0.34411256146285901</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="5">
         <v>0.25983552384074499</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="5">
         <v>0.26657141491693198</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="5">
         <v>-0.35261124997481103</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="5">
         <v>0.98892615360756297</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="5">
         <v>0.99748342833854697</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="5">
         <v>2.0210097099021999E-2</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="5">
         <v>0.22997353526563799</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="5">
         <v>-0.77647400903665798</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="5">
         <v>-0.78191191174447805</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="5">
         <v>-8.9616494935103305E-2</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="5">
         <v>0.31801002611000001</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC16" s="5">
         <v>-0.76280982329858704</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="5">
         <v>-0.76522181748741702</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE16" s="5">
         <v>2.26649634857943E-2</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AF16" s="5">
         <v>0.30574038155747701</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AG16" s="5">
         <v>0.85510598287886497</v>
       </c>
-      <c r="AH16" s="3">
+      <c r="AH16" s="5">
         <v>0.86160853037370599</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI16" s="5">
         <v>-0.42126442788250101</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AJ16" s="5">
         <v>-0.41190395545734498</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AK16" s="5">
         <v>-0.106675105596731</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AL16" s="5">
         <v>0.429912129055537</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AM16" s="5">
         <v>7.1197284653686202E-2</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AN16" s="5">
         <v>7.0715490090990707E-2</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AO16" s="5">
         <v>0.152404862914544</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AP16" s="5">
         <v>-0.391298203123494</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ16" s="5">
         <v>-0.44917005026310203</v>
       </c>
-      <c r="AR16" s="3">
+      <c r="AR16" s="5">
         <v>-0.445236164067356</v>
       </c>
-      <c r="AS16" s="3">
+      <c r="AS16" s="5">
         <v>5.4186881394714097E-3</v>
       </c>
-      <c r="AT16" s="3">
+      <c r="AT16" s="5">
         <v>0.47441239894207399</v>
       </c>
-      <c r="AU16" s="3">
+      <c r="AU16" s="5">
         <v>-0.86760549570638401</v>
       </c>
-      <c r="AV16" s="3">
+      <c r="AV16" s="5">
         <v>-0.87168032767631498</v>
       </c>
-      <c r="AW16" s="3">
+      <c r="AW16" s="5">
         <v>-0.10018638218708301</v>
       </c>
-      <c r="AX16" s="3">
+      <c r="AX16" s="5">
         <v>0.211674057378161</v>
       </c>
-      <c r="AY16" s="3">
+      <c r="AY16" s="5">
         <v>-0.50845043253709299</v>
       </c>
-      <c r="AZ16" s="3">
+      <c r="AZ16" s="5">
         <v>-0.50899265346664102</v>
       </c>
-      <c r="BA16" s="3">
+      <c r="BA16" s="5">
         <v>-8.3135259050507698E-2</v>
       </c>
-      <c r="BB16" s="3">
+      <c r="BB16" s="5">
         <v>0.42061128575622803</v>
       </c>
-      <c r="BC16" s="3">
+      <c r="BC16" s="5">
         <v>-0.40852298908692303</v>
       </c>
-      <c r="BD16" s="3">
+      <c r="BD16" s="5">
         <v>-0.41021013616528601</v>
       </c>
-      <c r="BE16" s="3">
+      <c r="BE16" s="5">
         <v>5.9714350783447001E-2</v>
       </c>
-      <c r="BF16" s="3">
+      <c r="BF16" s="5">
         <v>-0.52973935545411699</v>
       </c>
-      <c r="BG16" s="3">
+      <c r="BG16" s="5">
         <v>-0.42846955683768601</v>
       </c>
-      <c r="BH16" s="3">
+      <c r="BH16" s="5">
         <v>-0.43100656647830698</v>
       </c>
-      <c r="BI16" s="3">
+      <c r="BI16" s="5">
         <v>0.21707575413285399</v>
       </c>
-      <c r="BJ16" s="3">
+      <c r="BJ16" s="5">
         <v>0.32028616766201801</v>
       </c>
-      <c r="BK16" s="3">
+      <c r="BK16" s="5">
         <v>0.98837241383915098</v>
       </c>
-      <c r="BL16" s="3">
+      <c r="BL16" s="5">
         <v>0.12111540685422501</v>
       </c>
-      <c r="BM16" s="3">
+      <c r="BM16" s="5">
         <v>0.83358953994139395</v>
       </c>
-      <c r="BN16" s="3">
+      <c r="BN16" s="5">
         <v>-0.12952169545240699</v>
       </c>
     </row>
@@ -4293,199 +4300,199 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>0.36769780854351197</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>8.6387310466730899E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>-0.26882467945979299</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>-0.26371687757881901</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>5.2008294782508499E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>8.6307123510694098E-2</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="5">
         <v>0.22978290491040301</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="5">
         <v>0.229717314376403</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="5">
         <v>-0.334019244446633</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="5">
         <v>-0.33246484931586701</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="5">
         <v>0.61901698219936097</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="5">
         <v>-7.1500694543455895E-2</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="5">
         <v>-7.1671504299545205E-2</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="5">
         <v>-0.34512698107138401</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="5">
         <v>-0.34411256146285901</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="5">
         <v>1</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="5">
         <v>-3.5327787182654599E-2</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="5">
         <v>-4.8773403429487099E-2</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="5">
         <v>0.99952761862759498</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="5">
         <v>-0.33990691183425098</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="5">
         <v>-0.338816893075647</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="5">
         <v>-0.103877293603301</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="5">
         <v>-0.25105521915739598</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="5">
         <v>0.26865141892548</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="5">
         <v>0.26764179979372699</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="5">
         <v>0.18726238089382499</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="5">
         <v>-0.16954688642868099</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="5">
         <v>0.25612934915987801</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="5">
         <v>0.25602931119934902</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE17" s="5">
         <v>3.3048882663333601E-3</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF17" s="5">
         <v>-0.26835116630005501</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AG17" s="5">
         <v>-0.34710317076618302</v>
       </c>
-      <c r="AH17" s="3">
+      <c r="AH17" s="5">
         <v>-0.34729965805672802</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI17" s="5">
         <v>-5.2740484968980903E-3</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AJ17" s="5">
         <v>-1.26077561317865E-3</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AK17" s="5">
         <v>0.15590867930723001</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AL17" s="5">
         <v>-0.356482817687372</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AM17" s="5">
         <v>0.12500682640931299</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AN17" s="5">
         <v>0.12460342583035</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AO17" s="5">
         <v>-0.19287601828781001</v>
       </c>
-      <c r="AP17" s="3">
+      <c r="AP17" s="5">
         <v>0.208664765046499</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AQ17" s="5">
         <v>0.147315085249902</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AR17" s="5">
         <v>0.14805082215326101</v>
       </c>
-      <c r="AS17" s="3">
+      <c r="AS17" s="5">
         <v>0.109977608756124</v>
       </c>
-      <c r="AT17" s="3">
+      <c r="AT17" s="5">
         <v>-0.397904861718125</v>
       </c>
-      <c r="AU17" s="3">
+      <c r="AU17" s="5">
         <v>0.28892235836910102</v>
       </c>
-      <c r="AV17" s="3">
+      <c r="AV17" s="5">
         <v>0.28822638574367998</v>
       </c>
-      <c r="AW17" s="3">
+      <c r="AW17" s="5">
         <v>-0.129967230278596</v>
       </c>
-      <c r="AX17" s="3">
+      <c r="AX17" s="5">
         <v>-0.55048880260676203</v>
       </c>
-      <c r="AY17" s="3">
+      <c r="AY17" s="5">
         <v>1.86753339856164E-2</v>
       </c>
-      <c r="AZ17" s="3">
+      <c r="AZ17" s="5">
         <v>1.8063818893544401E-2</v>
       </c>
-      <c r="BA17" s="3">
+      <c r="BA17" s="5">
         <v>-1.72341876987867E-2</v>
       </c>
-      <c r="BB17" s="3">
+      <c r="BB17" s="5">
         <v>-0.48362666564531898</v>
       </c>
-      <c r="BC17" s="3">
+      <c r="BC17" s="5">
         <v>0.33794441866937303</v>
       </c>
-      <c r="BD17" s="3">
+      <c r="BD17" s="5">
         <v>0.33749554314386898</v>
       </c>
-      <c r="BE17" s="3">
+      <c r="BE17" s="5">
         <v>-0.25002838191043503</v>
       </c>
-      <c r="BF17" s="3">
+      <c r="BF17" s="5">
         <v>-0.15081149459816101</v>
       </c>
-      <c r="BG17" s="3">
+      <c r="BG17" s="5">
         <v>0.35579316212874101</v>
       </c>
-      <c r="BH17" s="3">
+      <c r="BH17" s="5">
         <v>0.355525903807343</v>
       </c>
-      <c r="BI17" s="3">
+      <c r="BI17" s="5">
         <v>-0.21997617951597501</v>
       </c>
-      <c r="BJ17" s="3">
+      <c r="BJ17" s="5">
         <v>-0.249742177351501</v>
       </c>
-      <c r="BK17" s="3">
+      <c r="BK17" s="5">
         <v>-0.33410842946185298</v>
       </c>
-      <c r="BL17" s="3">
+      <c r="BL17" s="5">
         <v>0.27481511592410002</v>
       </c>
-      <c r="BM17" s="3">
+      <c r="BM17" s="5">
         <v>-0.44659316563569201</v>
       </c>
-      <c r="BN17" s="3">
+      <c r="BN17" s="5">
         <v>0.28112841313185799</v>
       </c>
     </row>
@@ -4493,199 +4500,199 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>0.192571551563402</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>0.25663053999485103</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>-2.26935432323856E-2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>-1.2583315172076301E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>-0.66882803950648395</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <v>2.7688587496952601E-2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="5">
         <v>-0.26381088945766301</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="5">
         <v>-0.264819992279479</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="5">
         <v>0.28498373707230301</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="5">
         <v>0.29356391680607102</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="5">
         <v>-8.0716387549171306E-2</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="5">
         <v>0.92685600566677595</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="5">
         <v>0.92688950230258405</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="5">
         <v>0.25192971171251199</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="5">
         <v>0.25983552384074499</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="5">
         <v>-3.5327787182654599E-2</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="5">
         <v>1</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="5">
         <v>0.98213945125553703</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="5">
         <v>-3.5536425116053198E-2</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="5">
         <v>0.25389218402415797</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="5">
         <v>0.26190713827275902</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="5">
         <v>-0.57242931943396202</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="5">
         <v>0.15799719387120001</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="5">
         <v>-0.31721287760994099</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="5">
         <v>-0.32325865397150499</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="5">
         <v>-0.61377867437533795</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="5">
         <v>0.358453884058621</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="5">
         <v>-0.26618254739943598</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="5">
         <v>-0.26827989471422597</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18" s="5">
         <v>0.53007255417547605</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF18" s="5">
         <v>4.0923316997994702E-2</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG18" s="5">
         <v>0.25107379633495602</v>
       </c>
-      <c r="AH18" s="3">
+      <c r="AH18" s="5">
         <v>0.25627922540285603</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI18" s="5">
         <v>-0.20814800718375301</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AJ18" s="5">
         <v>-0.196739428915475</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AK18" s="5">
         <v>-0.378953456180327</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AL18" s="5">
         <v>0.137221883116835</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AM18" s="5">
         <v>0.28908128123085097</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AN18" s="5">
         <v>0.28818411267149202</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AO18" s="5">
         <v>0.555194204946724</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AP18" s="5">
         <v>-0.18408179285986701</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AQ18" s="5">
         <v>-0.24155668306707401</v>
       </c>
-      <c r="AR18" s="3">
+      <c r="AR18" s="5">
         <v>-0.236929479975513</v>
       </c>
-      <c r="AS18" s="3">
+      <c r="AS18" s="5">
         <v>-0.44291921583756599</v>
       </c>
-      <c r="AT18" s="3">
+      <c r="AT18" s="5">
         <v>0.21761033315352801</v>
       </c>
-      <c r="AU18" s="3">
+      <c r="AU18" s="5">
         <v>-0.16947038085503699</v>
       </c>
-      <c r="AV18" s="3">
+      <c r="AV18" s="5">
         <v>-0.17335294290094899</v>
       </c>
-      <c r="AW18" s="3">
+      <c r="AW18" s="5">
         <v>-0.58230608139524997</v>
       </c>
-      <c r="AX18" s="3">
+      <c r="AX18" s="5">
         <v>6.1896382593633101E-2</v>
       </c>
-      <c r="AY18" s="3">
+      <c r="AY18" s="5">
         <v>-0.23850962488552899</v>
       </c>
-      <c r="AZ18" s="3">
+      <c r="AZ18" s="5">
         <v>-0.239824168062021</v>
       </c>
-      <c r="BA18" s="3">
+      <c r="BA18" s="5">
         <v>-0.50320919767397199</v>
       </c>
-      <c r="BB18" s="3">
+      <c r="BB18" s="5">
         <v>0.11383608036986601</v>
       </c>
-      <c r="BC18" s="3">
+      <c r="BC18" s="5">
         <v>6.8481823684298102E-2</v>
       </c>
-      <c r="BD18" s="3">
+      <c r="BD18" s="5">
         <v>6.6387739993471306E-2</v>
       </c>
-      <c r="BE18" s="3">
+      <c r="BE18" s="5">
         <v>7.1730439453526695E-2</v>
       </c>
-      <c r="BF18" s="3">
+      <c r="BF18" s="5">
         <v>-0.34519526218848801</v>
       </c>
-      <c r="BG18" s="3">
+      <c r="BG18" s="5">
         <v>1.24051182036719E-2</v>
       </c>
-      <c r="BH18" s="3">
+      <c r="BH18" s="5">
         <v>9.6107010743463409E-3</v>
       </c>
-      <c r="BI18" s="3">
+      <c r="BI18" s="5">
         <v>0.15253375750015799</v>
       </c>
-      <c r="BJ18" s="3">
+      <c r="BJ18" s="5">
         <v>0.12325400119199301</v>
       </c>
-      <c r="BK18" s="3">
+      <c r="BK18" s="5">
         <v>0.29001366840252601</v>
       </c>
-      <c r="BL18" s="3">
+      <c r="BL18" s="5">
         <v>0.768225171448493</v>
       </c>
-      <c r="BM18" s="3">
+      <c r="BM18" s="5">
         <v>-0.17315162760640099</v>
       </c>
-      <c r="BN18" s="3">
+      <c r="BN18" s="5">
         <v>-0.425509117183408</v>
       </c>
     </row>
@@ -4693,199 +4700,199 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>0.179718474968422</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>0.25831681494252001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>-1.8763300866703001E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>-8.1098801211480307E-3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>-0.65555928662270702</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>1.38477955402104E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="5">
         <v>-0.27254089251033098</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="5">
         <v>-0.27359904031815502</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="5">
         <v>0.291448877440316</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="5">
         <v>0.300454987219199</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="5">
         <v>-0.105363866035646</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="5">
         <v>0.94481009950845796</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="5">
         <v>0.94486047081853397</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="5">
         <v>0.25827257756701999</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="5">
         <v>0.26657141491693198</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="5">
         <v>-4.8773403429487099E-2</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="5">
         <v>0.98213945125553703</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="5">
         <v>1</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="5">
         <v>-4.92069166410391E-2</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="5">
         <v>0.26021819295359799</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="5">
         <v>0.26863153381189803</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="5">
         <v>-0.56479491325843201</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="5">
         <v>0.14634865630698601</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="5">
         <v>-0.32722602499294801</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="5">
         <v>-0.33357334915037901</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA19" s="5">
         <v>-0.62186995974902004</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19" s="5">
         <v>0.35946556040578898</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC19" s="5">
         <v>-0.27662012590608598</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19" s="5">
         <v>-0.278823334660667</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE19" s="5">
         <v>0.52401642646824598</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF19" s="5">
         <v>5.6000901436835303E-2</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AG19" s="5">
         <v>0.26440686097789601</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="AH19" s="5">
         <v>0.269895649654047</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI19" s="5">
         <v>-0.19548965501979601</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AJ19" s="5">
         <v>-0.18375002590175701</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AK19" s="5">
         <v>-0.39158610460492899</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL19" s="5">
         <v>0.15641883961734099</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AM19" s="5">
         <v>0.275803983339939</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AN19" s="5">
         <v>0.27483228952192701</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AO19" s="5">
         <v>0.55586551700629105</v>
       </c>
-      <c r="AP19" s="3">
+      <c r="AP19" s="5">
         <v>-0.19881066984668</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AQ19" s="5">
         <v>-0.24941384106428099</v>
       </c>
-      <c r="AR19" s="3">
+      <c r="AR19" s="5">
         <v>-0.244560687529469</v>
       </c>
-      <c r="AS19" s="3">
+      <c r="AS19" s="5">
         <v>-0.44139359909951098</v>
       </c>
-      <c r="AT19" s="3">
+      <c r="AT19" s="5">
         <v>0.22776944369961999</v>
       </c>
-      <c r="AU19" s="3">
+      <c r="AU19" s="5">
         <v>-0.16904287381775099</v>
       </c>
-      <c r="AV19" s="3">
+      <c r="AV19" s="5">
         <v>-0.173110998137845</v>
       </c>
-      <c r="AW19" s="3">
+      <c r="AW19" s="5">
         <v>-0.57198266949681198</v>
       </c>
-      <c r="AX19" s="3">
+      <c r="AX19" s="5">
         <v>8.5913635935166696E-2</v>
       </c>
-      <c r="AY19" s="3">
+      <c r="AY19" s="5">
         <v>-0.22724992674824901</v>
       </c>
-      <c r="AZ19" s="3">
+      <c r="AZ19" s="5">
         <v>-0.22864160247781701</v>
       </c>
-      <c r="BA19" s="3">
+      <c r="BA19" s="5">
         <v>-0.49640813654932903</v>
       </c>
-      <c r="BB19" s="3">
+      <c r="BB19" s="5">
         <v>0.135737988448415</v>
       </c>
-      <c r="BC19" s="3">
+      <c r="BC19" s="5">
         <v>6.2667625360160406E-2</v>
       </c>
-      <c r="BD19" s="3">
+      <c r="BD19" s="5">
         <v>6.0443445658923303E-2</v>
       </c>
-      <c r="BE19" s="3">
+      <c r="BE19" s="5">
         <v>7.2927782498554597E-2</v>
       </c>
-      <c r="BF19" s="3">
+      <c r="BF19" s="5">
         <v>-0.344938805837397</v>
       </c>
-      <c r="BG19" s="3">
+      <c r="BG19" s="5">
         <v>4.3477770362298097E-3</v>
       </c>
-      <c r="BH19" s="3">
+      <c r="BH19" s="5">
         <v>1.37548905334216E-3</v>
       </c>
-      <c r="BI19" s="3">
+      <c r="BI19" s="5">
         <v>0.10263523217819499</v>
       </c>
-      <c r="BJ19" s="3">
+      <c r="BJ19" s="5">
         <v>0.144153526446748</v>
       </c>
-      <c r="BK19" s="3">
+      <c r="BK19" s="5">
         <v>0.29670857295609099</v>
       </c>
-      <c r="BL19" s="3">
+      <c r="BL19" s="5">
         <v>0.77052163282980601</v>
       </c>
-      <c r="BM19" s="3">
+      <c r="BM19" s="5">
         <v>-0.169685701285821</v>
       </c>
-      <c r="BN19" s="3">
+      <c r="BN19" s="5">
         <v>-0.44303319103411898</v>
       </c>
     </row>
@@ -4893,199 +4900,199 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>0.36932921613491698</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>8.0409628405199607E-2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>-0.27429630734518901</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>-0.26864945861263401</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>5.1936600533242297E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <v>8.4659816259462201E-2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="5">
         <v>0.23609833691457299</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="5">
         <v>0.23600219676574699</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="5">
         <v>-0.34283557515109198</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="5">
         <v>-0.34094903983207397</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="5">
         <v>0.62397322524377896</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="5">
         <v>-7.3801069544560699E-2</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="5">
         <v>-7.3976950667039104E-2</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="5">
         <v>-0.35391880461055703</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="5">
         <v>-0.35261124997481103</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="5">
         <v>0.99952761862759498</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="5">
         <v>-3.5536425116053198E-2</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="5">
         <v>-4.92069166410391E-2</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="5">
         <v>1</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="5">
         <v>-0.348859300173464</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="5">
         <v>-0.34747172780322</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="5">
         <v>-0.10162856430192201</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="5">
         <v>-0.25489955173725098</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="5">
         <v>0.27624281326707101</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="5">
         <v>0.27501625865130103</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="5">
         <v>0.18793479090545401</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="5">
         <v>-0.166920910026571</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="5">
         <v>0.26216307502422398</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="5">
         <v>0.26199775600853198</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20" s="5">
         <v>3.13148337809148E-3</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF20" s="5">
         <v>-0.26850068684669598</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AG20" s="5">
         <v>-0.35325800393275802</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AH20" s="5">
         <v>-0.35328788153822199</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI20" s="5">
         <v>2.1012501523790701E-3</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AJ20" s="5">
         <v>6.4875248437526803E-3</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AK20" s="5">
         <v>0.15404988914649301</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AL20" s="5">
         <v>-0.36003685475444103</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AM20" s="5">
         <v>0.12029334936032</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AN20" s="5">
         <v>0.119825803927471</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AO20" s="5">
         <v>-0.19558532229194101</v>
       </c>
-      <c r="AP20" s="3">
+      <c r="AP20" s="5">
         <v>0.20623646775624499</v>
       </c>
-      <c r="AQ20" s="3">
+      <c r="AQ20" s="5">
         <v>0.150279606125027</v>
       </c>
-      <c r="AR20" s="3">
+      <c r="AR20" s="5">
         <v>0.151176270899779</v>
       </c>
-      <c r="AS20" s="3">
+      <c r="AS20" s="5">
         <v>0.108332462573568</v>
       </c>
-      <c r="AT20" s="3">
+      <c r="AT20" s="5">
         <v>-0.40170345125531598</v>
       </c>
-      <c r="AU20" s="3">
+      <c r="AU20" s="5">
         <v>0.29985071761874499</v>
       </c>
-      <c r="AV20" s="3">
+      <c r="AV20" s="5">
         <v>0.29900778057602501</v>
       </c>
-      <c r="AW20" s="3">
+      <c r="AW20" s="5">
         <v>-0.13090591313101499</v>
       </c>
-      <c r="AX20" s="3">
+      <c r="AX20" s="5">
         <v>-0.54695121260910196</v>
       </c>
-      <c r="AY20" s="3">
+      <c r="AY20" s="5">
         <v>2.82347340259098E-2</v>
       </c>
-      <c r="AZ20" s="3">
+      <c r="AZ20" s="5">
         <v>2.75499475912751E-2</v>
       </c>
-      <c r="BA20" s="3">
+      <c r="BA20" s="5">
         <v>-1.8600439594470899E-2</v>
       </c>
-      <c r="BB20" s="3">
+      <c r="BB20" s="5">
         <v>-0.486537203027049</v>
       </c>
-      <c r="BC20" s="3">
+      <c r="BC20" s="5">
         <v>0.34031683709405203</v>
       </c>
-      <c r="BD20" s="3">
+      <c r="BD20" s="5">
         <v>0.33975645787473302</v>
       </c>
-      <c r="BE20" s="3">
+      <c r="BE20" s="5">
         <v>-0.252567640260279</v>
       </c>
-      <c r="BF20" s="3">
+      <c r="BF20" s="5">
         <v>-0.14187303253920899</v>
       </c>
-      <c r="BG20" s="3">
+      <c r="BG20" s="5">
         <v>0.35914653010209802</v>
       </c>
-      <c r="BH20" s="3">
+      <c r="BH20" s="5">
         <v>0.35874058336894299</v>
       </c>
-      <c r="BI20" s="3">
+      <c r="BI20" s="5">
         <v>-0.22285938192544499</v>
       </c>
-      <c r="BJ20" s="3">
+      <c r="BJ20" s="5">
         <v>-0.25301469368372898</v>
       </c>
-      <c r="BK20" s="3">
+      <c r="BK20" s="5">
         <v>-0.34278153892895202</v>
       </c>
-      <c r="BL20" s="3">
+      <c r="BL20" s="5">
         <v>0.275501257573386</v>
       </c>
-      <c r="BM20" s="3">
+      <c r="BM20" s="5">
         <v>-0.4552828287358</v>
       </c>
-      <c r="BN20" s="3">
+      <c r="BN20" s="5">
         <v>0.28267434898878702</v>
       </c>
     </row>
@@ -5093,199 +5100,199 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>-3.5309523409350299E-2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>0.41493970593326401</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>0.62235729118481697</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>0.59923522473542201</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>-3.8035600840230901E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>-0.13744418699271699</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5">
         <v>-0.79792154789058101</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="5">
         <v>-0.79725830091842298</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="5">
         <v>0.99157377797496005</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="5">
         <v>0.98098982830117898</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="5">
         <v>-0.28083670736904898</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="5">
         <v>0.30003330341051399</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="5">
         <v>0.30101115789127397</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="5">
         <v>0.99751217374364498</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="5">
         <v>0.98892615360756297</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="5">
         <v>-0.33990691183425098</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="5">
         <v>0.25389218402415797</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="5">
         <v>0.26021819295359799</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="5">
         <v>-0.348859300173464</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="5">
         <v>1</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="5">
         <v>0.99120504972424905</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="5">
         <v>4.15454374391886E-2</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="5">
         <v>0.23908977620171801</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="5">
         <v>-0.78111257885816399</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="5">
         <v>-0.77410372845433795</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="5">
         <v>-7.1426683650325007E-2</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="5">
         <v>0.30798779503135498</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="5">
         <v>-0.77150640952360905</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="5">
         <v>-0.76998299168206896</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="5">
         <v>-4.3318019687267201E-3</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF21" s="5">
         <v>0.31011654904046199</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG21" s="5">
         <v>0.86438601756751199</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AH21" s="5">
         <v>0.86087408570559598</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI21" s="5">
         <v>-0.41963454741706702</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AJ21" s="5">
         <v>-0.433576154521428</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AK21" s="5">
         <v>-0.110980206247616</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AL21" s="5">
         <v>0.44932207223785597</v>
       </c>
-      <c r="AM21" s="3">
+      <c r="AM21" s="5">
         <v>6.4014275270732099E-2</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AN21" s="5">
         <v>6.6543454709936695E-2</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AO21" s="5">
         <v>0.15272045362675099</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AP21" s="5">
         <v>-0.38908003370231398</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AQ21" s="5">
         <v>-0.45017221225934501</v>
       </c>
-      <c r="AR21" s="3">
+      <c r="AR21" s="5">
         <v>-0.45509260215490699</v>
       </c>
-      <c r="AS21" s="3">
+      <c r="AS21" s="5">
         <v>7.1846012575655701E-3</v>
       </c>
-      <c r="AT21" s="3">
+      <c r="AT21" s="5">
         <v>0.49592030194529102</v>
       </c>
-      <c r="AU21" s="3">
+      <c r="AU21" s="5">
         <v>-0.87299115044780895</v>
       </c>
-      <c r="AV21" s="3">
+      <c r="AV21" s="5">
         <v>-0.86813922395274901</v>
       </c>
-      <c r="AW21" s="3">
+      <c r="AW21" s="5">
         <v>-9.41491572203106E-2</v>
       </c>
-      <c r="AX21" s="3">
+      <c r="AX21" s="5">
         <v>0.19855080247269</v>
       </c>
-      <c r="AY21" s="3">
+      <c r="AY21" s="5">
         <v>-0.50239332083816401</v>
       </c>
-      <c r="AZ21" s="3">
+      <c r="AZ21" s="5">
         <v>-0.49935344823379502</v>
       </c>
-      <c r="BA21" s="3">
+      <c r="BA21" s="5">
         <v>-9.3271754985414707E-2</v>
       </c>
-      <c r="BB21" s="3">
+      <c r="BB21" s="5">
         <v>0.43676618971277698</v>
       </c>
-      <c r="BC21" s="3">
+      <c r="BC21" s="5">
         <v>-0.41739486606888598</v>
       </c>
-      <c r="BD21" s="3">
+      <c r="BD21" s="5">
         <v>-0.41330658696780898</v>
       </c>
-      <c r="BE21" s="3">
+      <c r="BE21" s="5">
         <v>6.4323911591412694E-2</v>
       </c>
-      <c r="BF21" s="3">
+      <c r="BF21" s="5">
         <v>-0.55387532899444203</v>
       </c>
-      <c r="BG21" s="3">
+      <c r="BG21" s="5">
         <v>-0.44761059653243401</v>
       </c>
-      <c r="BH21" s="3">
+      <c r="BH21" s="5">
         <v>-0.44276328425414002</v>
       </c>
-      <c r="BI21" s="3">
+      <c r="BI21" s="5">
         <v>0.23985196500490999</v>
       </c>
-      <c r="BJ21" s="3">
+      <c r="BJ21" s="5">
         <v>0.36315123498247098</v>
       </c>
-      <c r="BK21" s="3">
+      <c r="BK21" s="5">
         <v>0.98885336719171801</v>
       </c>
-      <c r="BL21" s="3">
+      <c r="BL21" s="5">
         <v>0.10982214483663399</v>
       </c>
-      <c r="BM21" s="3">
+      <c r="BM21" s="5">
         <v>0.84030580158747603</v>
       </c>
-      <c r="BN21" s="3">
+      <c r="BN21" s="5">
         <v>-0.13903258182410699</v>
       </c>
     </row>
@@ -5293,999 +5300,999 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>-2.09698875186058E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>0.39509744541751202</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>0.61381469018112</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>0.61749638835072695</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>-5.0186526915320197E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <v>-0.130158759087661</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5">
         <v>-0.79112654281482897</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="5">
         <v>-0.792365833061491</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="5">
         <v>0.98292290983269404</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="5">
         <v>0.99140730476111005</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="5">
         <v>-0.26738883737675001</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="5">
         <v>0.30685256541654299</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="5">
         <v>0.30779349229205499</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="5">
         <v>0.98874602668382905</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="5">
         <v>0.99748342833854697</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="5">
         <v>-0.338816893075647</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="5">
         <v>0.26190713827275902</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="5">
         <v>0.26863153381189803</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="5">
         <v>-0.34747172780322</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="5">
         <v>0.99120504972424905</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="5">
         <v>1</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="5">
         <v>2.3239504134142899E-2</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="5">
         <v>0.23066829387086399</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="5">
         <v>-0.77334724562701695</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="5">
         <v>-0.778933500750005</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="5">
         <v>-8.1563497822717504E-2</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="5">
         <v>0.325664239652321</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="5">
         <v>-0.76392851215292101</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="5">
         <v>-0.76639414223909796</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE22" s="5">
         <v>1.48959686722281E-2</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF22" s="5">
         <v>0.29646827650688201</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG22" s="5">
         <v>0.85457008240177001</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AH22" s="5">
         <v>0.86119985635626395</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI22" s="5">
         <v>-0.42469579553527598</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AJ22" s="5">
         <v>-0.414992154141688</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AK22" s="5">
         <v>-0.107299947251747</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AL22" s="5">
         <v>0.42828588466460599</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AM22" s="5">
         <v>7.0896893325663096E-2</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AN22" s="5">
         <v>7.0375820096684194E-2</v>
       </c>
-      <c r="AO22" s="3">
+      <c r="AO22" s="5">
         <v>0.15638179563111501</v>
       </c>
-      <c r="AP22" s="3">
+      <c r="AP22" s="5">
         <v>-0.37276917241624302</v>
       </c>
-      <c r="AQ22" s="3">
+      <c r="AQ22" s="5">
         <v>-0.44691286572647598</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AR22" s="5">
         <v>-0.442876157785842</v>
       </c>
-      <c r="AS22" s="3">
+      <c r="AS22" s="5">
         <v>7.3910119070634698E-3</v>
       </c>
-      <c r="AT22" s="3">
+      <c r="AT22" s="5">
         <v>0.47449374937330102</v>
       </c>
-      <c r="AU22" s="3">
+      <c r="AU22" s="5">
         <v>-0.86771753948411201</v>
       </c>
-      <c r="AV22" s="3">
+      <c r="AV22" s="5">
         <v>-0.87190832832508303</v>
       </c>
-      <c r="AW22" s="3">
+      <c r="AW22" s="5">
         <v>-0.111934229472978</v>
       </c>
-      <c r="AX22" s="3">
+      <c r="AX22" s="5">
         <v>0.19774986816658</v>
       </c>
-      <c r="AY22" s="3">
+      <c r="AY22" s="5">
         <v>-0.50431065670077302</v>
       </c>
-      <c r="AZ22" s="3">
+      <c r="AZ22" s="5">
         <v>-0.50490005771010704</v>
       </c>
-      <c r="BA22" s="3">
+      <c r="BA22" s="5">
         <v>-9.4541029022644593E-2</v>
       </c>
-      <c r="BB22" s="3">
+      <c r="BB22" s="5">
         <v>0.41138762530424799</v>
       </c>
-      <c r="BC22" s="3">
+      <c r="BC22" s="5">
         <v>-0.41200231901502099</v>
       </c>
-      <c r="BD22" s="3">
+      <c r="BD22" s="5">
         <v>-0.413769822357553</v>
       </c>
-      <c r="BE22" s="3">
+      <c r="BE22" s="5">
         <v>5.5696641456460798E-2</v>
       </c>
-      <c r="BF22" s="3">
+      <c r="BF22" s="5">
         <v>-0.53779369608221095</v>
       </c>
-      <c r="BG22" s="3">
+      <c r="BG22" s="5">
         <v>-0.43975835582685602</v>
       </c>
-      <c r="BH22" s="3">
+      <c r="BH22" s="5">
         <v>-0.442423094954421</v>
       </c>
-      <c r="BI22" s="3">
+      <c r="BI22" s="5">
         <v>0.21986883356525599</v>
       </c>
-      <c r="BJ22" s="3">
+      <c r="BJ22" s="5">
         <v>0.32345493671972397</v>
       </c>
-      <c r="BK22" s="3">
+      <c r="BK22" s="5">
         <v>0.98971547671656601</v>
       </c>
-      <c r="BL22" s="3">
+      <c r="BL22" s="5">
         <v>0.123129509897006</v>
       </c>
-      <c r="BM22" s="3">
+      <c r="BM22" s="5">
         <v>0.83358579084223805</v>
       </c>
-      <c r="BN22" s="3">
+      <c r="BN22" s="5">
         <v>-0.127651538462912</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>-8.4686929175195706E-3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>0.154543390700974</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>0.19076152380504799</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>0.16217534455299901</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>0.64770463405716505</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="5">
         <v>9.3146039122934399E-3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="5">
         <v>1.0468534014060799E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="5">
         <v>1.24871508453988E-2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="5">
         <v>2.0079342918113301E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="5">
         <v>9.6961712547489798E-5</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="5">
         <v>-7.9130735128758706E-2</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="5">
         <v>-0.52462675916607704</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="5">
         <v>-0.52403461888639402</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="5">
         <v>3.8253701091098297E-2</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="5">
         <v>2.0210097099021999E-2</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="5">
         <v>-0.103877293603301</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="5">
         <v>-0.57242931943396202</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="5">
         <v>-0.56479491325843201</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="5">
         <v>-0.10162856430192201</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="5">
         <v>4.15454374391886E-2</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="5">
         <v>2.3239504134142899E-2</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="5">
         <v>1</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="5">
         <v>8.7754363228538301E-2</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="5">
         <v>1.88313135778569E-2</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="5">
         <v>3.2176891805325999E-2</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="5">
         <v>0.56748056433688099</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="5">
         <v>-9.2563351923391698E-2</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="5">
         <v>1.7129081618172001E-2</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="5">
         <v>2.1376575448161399E-2</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE23" s="5">
         <v>-0.56013273981414802</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF23" s="5">
         <v>6.1919624881364398E-2</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG23" s="5">
         <v>1.03962141687111E-3</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AH23" s="5">
         <v>-9.6678797196228603E-3</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI23" s="5">
         <v>0.14813625951058601</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AJ23" s="5">
         <v>0.12153882224599501</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AK23" s="5">
         <v>4.47894590802667E-2</v>
       </c>
-      <c r="AL23" s="3">
+      <c r="AL23" s="5">
         <v>0.12575178532822101</v>
       </c>
-      <c r="AM23" s="3">
+      <c r="AM23" s="5">
         <v>-0.20299391172252501</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AN23" s="5">
         <v>-0.19995839944086399</v>
       </c>
-      <c r="AO23" s="3">
+      <c r="AO23" s="5">
         <v>-0.398695145297771</v>
       </c>
-      <c r="AP23" s="3">
+      <c r="AP23" s="5">
         <v>8.2082915971610701E-3</v>
       </c>
-      <c r="AQ23" s="3">
+      <c r="AQ23" s="5">
         <v>9.42411954447155E-2</v>
       </c>
-      <c r="AR23" s="3">
+      <c r="AR23" s="5">
         <v>8.4320936281123707E-2</v>
       </c>
-      <c r="AS23" s="3">
+      <c r="AS23" s="5">
         <v>0.49362067905860801</v>
       </c>
-      <c r="AT23" s="3">
+      <c r="AT23" s="5">
         <v>0.20555137269315699</v>
       </c>
-      <c r="AU23" s="3">
+      <c r="AU23" s="5">
         <v>-6.3507636511779195E-2</v>
       </c>
-      <c r="AV23" s="3">
+      <c r="AV23" s="5">
         <v>-5.4170421221654802E-2</v>
       </c>
-      <c r="AW23" s="3">
+      <c r="AW23" s="5">
         <v>0.274463302625298</v>
       </c>
-      <c r="AX23" s="3">
+      <c r="AX23" s="5">
         <v>-3.8443147384901503E-2</v>
       </c>
-      <c r="AY23" s="3">
+      <c r="AY23" s="5">
         <v>4.0786675774714301E-2</v>
       </c>
-      <c r="AZ23" s="3">
+      <c r="AZ23" s="5">
         <v>4.4592348739091701E-2</v>
       </c>
-      <c r="BA23" s="3">
+      <c r="BA23" s="5">
         <v>0.26510049901001098</v>
       </c>
-      <c r="BB23" s="3">
+      <c r="BB23" s="5">
         <v>0.13181166428707</v>
       </c>
-      <c r="BC23" s="3">
+      <c r="BC23" s="5">
         <v>-7.6161027636022102E-2</v>
       </c>
-      <c r="BD23" s="3">
+      <c r="BD23" s="5">
         <v>-7.0119107701602304E-2</v>
       </c>
-      <c r="BE23" s="3">
+      <c r="BE23" s="5">
         <v>-0.214108338813946</v>
       </c>
-      <c r="BF23" s="3">
+      <c r="BF23" s="5">
         <v>-7.3903041300908898E-2</v>
       </c>
-      <c r="BG23" s="3">
+      <c r="BG23" s="5">
         <v>-8.4504165303442805E-2</v>
       </c>
-      <c r="BH23" s="3">
+      <c r="BH23" s="5">
         <v>-7.68237701891403E-2</v>
       </c>
-      <c r="BI23" s="3">
+      <c r="BI23" s="5">
         <v>8.8297552014661704E-2</v>
       </c>
-      <c r="BJ23" s="3">
+      <c r="BJ23" s="5">
         <v>4.1188608408433802E-2</v>
       </c>
-      <c r="BK23" s="3">
+      <c r="BK23" s="5">
         <v>1.0138933962196599E-2</v>
       </c>
-      <c r="BL23" s="3">
+      <c r="BL23" s="5">
         <v>-0.50288525554443397</v>
       </c>
-      <c r="BM23" s="3">
+      <c r="BM23" s="5">
         <v>0.29488087336873298</v>
       </c>
-      <c r="BN23" s="3">
+      <c r="BN23" s="5">
         <v>0.242626995378285</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>3.6635930116251103E-2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>0.57669671907758102</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>0.207303517724404</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>0.19204449918024</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>-6.6224635170520296E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="5">
         <v>0.64359239045500904</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="5">
         <v>-0.176677562491345</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="5">
         <v>-0.175819130179312</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="5">
         <v>0.23862348998558</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="5">
         <v>0.22925426768344401</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="5">
         <v>9.2924471454144605E-3</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="5">
         <v>0.108481917588168</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="5">
         <v>0.10946018917719599</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="5">
         <v>0.23825090511872399</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="5">
         <v>0.22997353526563799</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="5">
         <v>-0.25105521915739598</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="5">
         <v>0.15799719387120001</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="5">
         <v>0.14634865630698601</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="5">
         <v>-0.25489955173725098</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="5">
         <v>0.23908977620171801</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="5">
         <v>0.23066829387086399</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="5">
         <v>8.7754363228538301E-2</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="5">
         <v>1</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="5">
         <v>-0.246217539609039</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="5">
         <v>-0.24026274521108301</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="5">
         <v>-4.4806884692630798E-2</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="5">
         <v>0.45127994161912199</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="5">
         <v>-0.20372903296325701</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="5">
         <v>-0.20197264397581199</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE24" s="5">
         <v>-7.6948105303204402E-3</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF24" s="5">
         <v>-0.34528995097230702</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG24" s="5">
         <v>0.273620498686383</v>
       </c>
-      <c r="AH24" s="3">
+      <c r="AH24" s="5">
         <v>0.26949555524001101</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI24" s="5">
         <v>7.3682696136691997E-2</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AJ24" s="5">
         <v>5.97667011533295E-2</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AK24" s="5">
         <v>-9.5378237629818202E-2</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AL24" s="5">
         <v>-6.2709816626775203E-2</v>
       </c>
-      <c r="AM24" s="3">
+      <c r="AM24" s="5">
         <v>-0.121193468431156</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AN24" s="5">
         <v>-0.11961217048368999</v>
       </c>
-      <c r="AO24" s="3">
+      <c r="AO24" s="5">
         <v>5.45783230044228E-2</v>
       </c>
-      <c r="AP24" s="3">
+      <c r="AP24" s="5">
         <v>1.05557070842667E-2</v>
       </c>
-      <c r="AQ24" s="3">
+      <c r="AQ24" s="5">
         <v>-9.5695633944713504E-2</v>
       </c>
-      <c r="AR24" s="3">
+      <c r="AR24" s="5">
         <v>-0.10014905885186701</v>
       </c>
-      <c r="AS24" s="3">
+      <c r="AS24" s="5">
         <v>-1.0910200098045801E-2</v>
       </c>
-      <c r="AT24" s="3">
+      <c r="AT24" s="5">
         <v>0.53569008636472304</v>
       </c>
-      <c r="AU24" s="3">
+      <c r="AU24" s="5">
         <v>-0.186920209578254</v>
       </c>
-      <c r="AV24" s="3">
+      <c r="AV24" s="5">
         <v>-0.182453399963979</v>
       </c>
-      <c r="AW24" s="3">
+      <c r="AW24" s="5">
         <v>-0.118889005538028</v>
       </c>
-      <c r="AX24" s="3">
+      <c r="AX24" s="5">
         <v>-0.38622534650425699</v>
       </c>
-      <c r="AY24" s="3">
+      <c r="AY24" s="5">
         <v>-7.7537739264745302E-3</v>
       </c>
-      <c r="AZ24" s="3">
+      <c r="AZ24" s="5">
         <v>-5.7494904896447704E-3</v>
       </c>
-      <c r="BA24" s="3">
+      <c r="BA24" s="5">
         <v>-0.10255672777266001</v>
       </c>
-      <c r="BB24" s="3">
+      <c r="BB24" s="5">
         <v>-1.3956528281259499E-2</v>
       </c>
-      <c r="BC24" s="3">
+      <c r="BC24" s="5">
         <v>-0.14776785202482801</v>
       </c>
-      <c r="BD24" s="3">
+      <c r="BD24" s="5">
         <v>-0.14476521786741001</v>
       </c>
-      <c r="BE24" s="3">
+      <c r="BE24" s="5">
         <v>9.0850763019895194E-3</v>
       </c>
-      <c r="BF24" s="3">
+      <c r="BF24" s="5">
         <v>-0.53272002741596403</v>
       </c>
-      <c r="BG24" s="3">
+      <c r="BG24" s="5">
         <v>-0.17908373138296799</v>
       </c>
-      <c r="BH24" s="3">
+      <c r="BH24" s="5">
         <v>-0.17542716791440899</v>
       </c>
-      <c r="BI24" s="3">
+      <c r="BI24" s="5">
         <v>5.5581364087939303E-2</v>
       </c>
-      <c r="BJ24" s="3">
+      <c r="BJ24" s="5">
         <v>0.100234251337306</v>
       </c>
-      <c r="BK24" s="3">
+      <c r="BK24" s="5">
         <v>0.234557282950725</v>
       </c>
-      <c r="BL24" s="3">
+      <c r="BL24" s="5">
         <v>0.100131752972781</v>
       </c>
-      <c r="BM24" s="3">
+      <c r="BM24" s="5">
         <v>0.160466084807941</v>
       </c>
-      <c r="BN24" s="3">
+      <c r="BN24" s="5">
         <v>-0.128457243667191</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>-3.8662119782331202E-2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>-0.41926354368359198</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>-0.135287289074314</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>-0.116679999607437</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>0.116365745540461</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="5">
         <v>6.5544754170289599E-2</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="5">
         <v>0.93871963139369397</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="5">
         <v>0.93845358094015596</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="5">
         <v>-0.80493470985405302</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="5">
         <v>-0.795846961834074</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="5">
         <v>0.204980272714366</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="5">
         <v>-0.36755111659545597</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="5">
         <v>-0.3680361991526</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="5">
         <v>-0.784035901178885</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="5">
         <v>-0.77647400903665798</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="5">
         <v>0.26865141892548</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="5">
         <v>-0.31721287760994099</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="5">
         <v>-0.32722602499294801</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="5">
         <v>0.27624281326707101</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="5">
         <v>-0.78111257885816399</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="5">
         <v>-0.77334724562701695</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="5">
         <v>1.88313135778569E-2</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="5">
         <v>-0.246217539609039</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="5">
         <v>1</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="5">
         <v>0.995487139574604</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25" s="5">
         <v>0.142230301847041</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AB25" s="5">
         <v>-0.33676537490198999</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AC25" s="5">
         <v>0.94185216819014295</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25" s="5">
         <v>0.94121464378265596</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AE25" s="5">
         <v>-6.6287646304659706E-2</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AF25" s="5">
         <v>-0.25829704468572301</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AG25" s="5">
         <v>-0.87835933220486895</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AH25" s="5">
         <v>-0.87621273236365105</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AI25" s="5">
         <v>0.47683249890092999</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AJ25" s="5">
         <v>0.48709170725797102</v>
       </c>
-      <c r="AK25" s="3">
+      <c r="AK25" s="5">
         <v>0.101631256871047</v>
       </c>
-      <c r="AL25" s="3">
+      <c r="AL25" s="5">
         <v>-0.38153466595388302</v>
       </c>
-      <c r="AM25" s="3">
+      <c r="AM25" s="5">
         <v>-0.306288422545337</v>
       </c>
-      <c r="AN25" s="3">
+      <c r="AN25" s="5">
         <v>-0.30864121321458099</v>
       </c>
-      <c r="AO25" s="3">
+      <c r="AO25" s="5">
         <v>-0.21797678809471299</v>
       </c>
-      <c r="AP25" s="3">
+      <c r="AP25" s="5">
         <v>0.38606776476357302</v>
       </c>
-      <c r="AQ25" s="3">
+      <c r="AQ25" s="5">
         <v>0.82740725057354803</v>
       </c>
-      <c r="AR25" s="3">
+      <c r="AR25" s="5">
         <v>0.82922972828196695</v>
       </c>
-      <c r="AS25" s="3">
+      <c r="AS25" s="5">
         <v>-3.6987853989205101E-2</v>
       </c>
-      <c r="AT25" s="3">
+      <c r="AT25" s="5">
         <v>-0.48292259869764798</v>
       </c>
-      <c r="AU25" s="3">
+      <c r="AU25" s="5">
         <v>0.59546824108945895</v>
       </c>
-      <c r="AV25" s="3">
+      <c r="AV25" s="5">
         <v>0.59097299074795395</v>
       </c>
-      <c r="AW25" s="3">
+      <c r="AW25" s="5">
         <v>9.4471857963092098E-2</v>
       </c>
-      <c r="AX25" s="3">
+      <c r="AX25" s="5">
         <v>-0.16443022364282101</v>
       </c>
-      <c r="AY25" s="3">
+      <c r="AY25" s="5">
         <v>0.50672150180567399</v>
       </c>
-      <c r="AZ25" s="3">
+      <c r="AZ25" s="5">
         <v>0.50413953443677195</v>
       </c>
-      <c r="BA25" s="3">
+      <c r="BA25" s="5">
         <v>6.6298474896205897E-2</v>
       </c>
-      <c r="BB25" s="3">
+      <c r="BB25" s="5">
         <v>-0.39051212263629498</v>
       </c>
-      <c r="BC25" s="3">
+      <c r="BC25" s="5">
         <v>1.7714711002765102E-2</v>
       </c>
-      <c r="BD25" s="3">
+      <c r="BD25" s="5">
         <v>1.37373050064568E-2</v>
       </c>
-      <c r="BE25" s="3">
+      <c r="BE25" s="5">
         <v>-9.0439136350141502E-2</v>
       </c>
-      <c r="BF25" s="3">
+      <c r="BF25" s="5">
         <v>0.50750728076968099</v>
       </c>
-      <c r="BG25" s="3">
+      <c r="BG25" s="5">
         <v>0.39811167717393398</v>
       </c>
-      <c r="BH25" s="3">
+      <c r="BH25" s="5">
         <v>0.39407833789587798</v>
       </c>
-      <c r="BI25" s="3">
+      <c r="BI25" s="5">
         <v>-0.30445500765297401</v>
       </c>
-      <c r="BJ25" s="3">
+      <c r="BJ25" s="5">
         <v>-0.41163824711941499</v>
       </c>
-      <c r="BK25" s="3">
+      <c r="BK25" s="5">
         <v>-0.80247833458392004</v>
       </c>
-      <c r="BL25" s="3">
+      <c r="BL25" s="5">
         <v>-0.21034499414843799</v>
       </c>
-      <c r="BM25" s="3">
+      <c r="BM25" s="5">
         <v>-0.61855270746726898</v>
       </c>
-      <c r="BN25" s="3">
+      <c r="BN25" s="5">
         <v>0.175947712008614</v>
       </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>-4.9225309441600598E-2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>-0.40515409161406801</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>-0.127285710689093</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>-0.12788132987537401</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>0.12539371094731599</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="5">
         <v>6.00592919825092E-2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="5">
         <v>0.93458351038335796</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="5">
         <v>0.93568098542268896</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="5">
         <v>-0.798160016892969</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="5">
         <v>-0.80272736812156897</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="5">
         <v>0.19509374673684701</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="5">
         <v>-0.372766804423111</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="5">
         <v>-0.37322360788516501</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="5">
         <v>-0.77706945256852</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="5">
         <v>-0.78191191174447805</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="5">
         <v>0.26764179979372699</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="5">
         <v>-0.32325865397150499</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="5">
         <v>-0.33357334915037901</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="5">
         <v>0.27501625865130103</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="5">
         <v>-0.77410372845433795</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="5">
         <v>-0.778933500750005</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="5">
         <v>3.2176891805325999E-2</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="5">
         <v>-0.24026274521108301</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="5">
         <v>0.995487139574604</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="5">
         <v>1</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="5">
         <v>0.149791685833152</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="5">
         <v>-0.34959587498780897</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="5">
         <v>0.93727211413950495</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="5">
         <v>0.93949368570748004</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AE26" s="5">
         <v>-8.0342248244338305E-2</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AF26" s="5">
         <v>-0.24837136487092101</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AG26" s="5">
         <v>-0.87155155785312899</v>
       </c>
-      <c r="AH26" s="3">
+      <c r="AH26" s="5">
         <v>-0.87667030902811305</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AI26" s="5">
         <v>0.48076961227672399</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AJ26" s="5">
         <v>0.47408877981026198</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AK26" s="5">
         <v>9.8978933587672499E-2</v>
       </c>
-      <c r="AL26" s="3">
+      <c r="AL26" s="5">
         <v>-0.36628044542934401</v>
       </c>
-      <c r="AM26" s="3">
+      <c r="AM26" s="5">
         <v>-0.31222375333908298</v>
       </c>
-      <c r="AN26" s="3">
+      <c r="AN26" s="5">
         <v>-0.31239263232856901</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AO26" s="5">
         <v>-0.220894838330153</v>
       </c>
-      <c r="AP26" s="3">
+      <c r="AP26" s="5">
         <v>0.37445141601995702</v>
       </c>
-      <c r="AQ26" s="3">
+      <c r="AQ26" s="5">
         <v>0.82670924100402099</v>
       </c>
-      <c r="AR26" s="3">
+      <c r="AR26" s="5">
         <v>0.82210756292686205</v>
       </c>
-      <c r="AS26" s="3">
+      <c r="AS26" s="5">
         <v>-3.7259503977818E-2</v>
       </c>
-      <c r="AT26" s="3">
+      <c r="AT26" s="5">
         <v>-0.46762291545305101</v>
       </c>
-      <c r="AU26" s="3">
+      <c r="AU26" s="5">
         <v>0.59071542423019097</v>
       </c>
-      <c r="AV26" s="3">
+      <c r="AV26" s="5">
         <v>0.59269436509028595</v>
       </c>
-      <c r="AW26" s="3">
+      <c r="AW26" s="5">
         <v>0.10722306719050501</v>
       </c>
-      <c r="AX26" s="3">
+      <c r="AX26" s="5">
         <v>-0.16375375345755</v>
       </c>
-      <c r="AY26" s="3">
+      <c r="AY26" s="5">
         <v>0.50820603711062695</v>
       </c>
-      <c r="AZ26" s="3">
+      <c r="AZ26" s="5">
         <v>0.50822356132952196</v>
       </c>
-      <c r="BA26" s="3">
+      <c r="BA26" s="5">
         <v>6.7113717071987905E-2</v>
       </c>
-      <c r="BB26" s="3">
+      <c r="BB26" s="5">
         <v>-0.37223539813009898</v>
       </c>
-      <c r="BC26" s="3">
+      <c r="BC26" s="5">
         <v>1.2289139929869901E-2</v>
       </c>
-      <c r="BD26" s="3">
+      <c r="BD26" s="5">
         <v>1.25035485917829E-2</v>
       </c>
-      <c r="BE26" s="3">
+      <c r="BE26" s="5">
         <v>-8.4382341749000903E-2</v>
       </c>
-      <c r="BF26" s="3">
+      <c r="BF26" s="5">
         <v>0.49590765521082197</v>
       </c>
-      <c r="BG26" s="3">
+      <c r="BG26" s="5">
         <v>0.39237064910549002</v>
       </c>
-      <c r="BH26" s="3">
+      <c r="BH26" s="5">
         <v>0.39371758755906699</v>
       </c>
-      <c r="BI26" s="3">
+      <c r="BI26" s="5">
         <v>-0.29045973900152799</v>
       </c>
-      <c r="BJ26" s="3">
+      <c r="BJ26" s="5">
         <v>-0.38348726361126201</v>
       </c>
-      <c r="BK26" s="3">
+      <c r="BK26" s="5">
         <v>-0.80251450970261096</v>
       </c>
-      <c r="BL26" s="3">
+      <c r="BL26" s="5">
         <v>-0.22030554326086099</v>
       </c>
-      <c r="BM26" s="3">
+      <c r="BM26" s="5">
         <v>-0.61298759300609695</v>
       </c>
-      <c r="BN26" s="3">
+      <c r="BN26" s="5">
         <v>0.16797790633366499</v>
       </c>
     </row>
@@ -6293,199 +6300,199 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>0.35582772372675397</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>-4.5617985770433203E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>0.104791084614417</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>8.9749615520637996E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
         <v>0.88051455479892304</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="5">
         <v>6.8064812120800802E-2</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="5">
         <v>0.110833022495093</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="5">
         <v>0.112010970941212</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="5">
         <v>-0.10162223728525099</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="5">
         <v>-0.112681898651546</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="5">
         <v>0.167928476525221</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="5">
         <v>-0.56838099762471805</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="5">
         <v>-0.56808085067337299</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="5">
         <v>-7.9581724534683707E-2</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="5">
         <v>-8.9616494935103305E-2</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="5">
         <v>0.18726238089382499</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="5">
         <v>-0.61377867437533795</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="5">
         <v>-0.62186995974902004</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="5">
         <v>0.18793479090545401</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="5">
         <v>-7.1426683650325007E-2</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="5">
         <v>-8.1563497822717504E-2</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="5">
         <v>0.56748056433688099</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="5">
         <v>-4.4806884692630798E-2</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="5">
         <v>0.142230301847041</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="5">
         <v>0.149791685833152</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="5">
         <v>1</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="5">
         <v>-6.7821927989222403E-2</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="5">
         <v>0.12213898304576599</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="5">
         <v>0.124624454348676</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE27" s="5">
         <v>-0.662941162174849</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AF27" s="5">
         <v>-0.11404328615162899</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AG27" s="5">
         <v>-0.12416098402186</v>
       </c>
-      <c r="AH27" s="3">
+      <c r="AH27" s="5">
         <v>-0.13047506874314899</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AI27" s="5">
         <v>0.10173392203885499</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AJ27" s="5">
         <v>8.7456154587876506E-2</v>
       </c>
-      <c r="AK27" s="3">
+      <c r="AK27" s="5">
         <v>0.26025395673306301</v>
       </c>
-      <c r="AL27" s="3">
+      <c r="AL27" s="5">
         <v>-0.114539720923808</v>
       </c>
-      <c r="AM27" s="3">
+      <c r="AM27" s="5">
         <v>-0.197976987667867</v>
       </c>
-      <c r="AN27" s="3">
+      <c r="AN27" s="5">
         <v>-0.19645991917158101</v>
       </c>
-      <c r="AO27" s="3">
+      <c r="AO27" s="5">
         <v>-0.416380061936931</v>
       </c>
-      <c r="AP27" s="3">
+      <c r="AP27" s="5">
         <v>0.11898342292620501</v>
       </c>
-      <c r="AQ27" s="3">
+      <c r="AQ27" s="5">
         <v>0.15093411220705999</v>
       </c>
-      <c r="AR27" s="3">
+      <c r="AR27" s="5">
         <v>0.14519017021002301</v>
       </c>
-      <c r="AS27" s="3">
+      <c r="AS27" s="5">
         <v>0.76643629506708899</v>
       </c>
-      <c r="AT27" s="3">
+      <c r="AT27" s="5">
         <v>-0.114429468720556</v>
       </c>
-      <c r="AU27" s="3">
+      <c r="AU27" s="5">
         <v>5.96549935934036E-2</v>
       </c>
-      <c r="AV27" s="3">
+      <c r="AV27" s="5">
         <v>6.4828920121935696E-2</v>
       </c>
-      <c r="AW27" s="3">
+      <c r="AW27" s="5">
         <v>6.4385963719823094E-2</v>
       </c>
-      <c r="AX27" s="3">
+      <c r="AX27" s="5">
         <v>-0.136806464968214</v>
       </c>
-      <c r="AY27" s="3">
+      <c r="AY27" s="5">
         <v>8.0562991268939399E-2</v>
       </c>
-      <c r="AZ27" s="3">
+      <c r="AZ27" s="5">
         <v>8.2552071704888E-2</v>
       </c>
-      <c r="BA27" s="3">
+      <c r="BA27" s="5">
         <v>0.15866987933544</v>
       </c>
-      <c r="BB27" s="3">
+      <c r="BB27" s="5">
         <v>-0.13688426473380599</v>
       </c>
-      <c r="BC27" s="3">
+      <c r="BC27" s="5">
         <v>9.6027998024106297E-3</v>
       </c>
-      <c r="BD27" s="3">
+      <c r="BD27" s="5">
         <v>1.2858043351307099E-2</v>
       </c>
-      <c r="BE27" s="3">
+      <c r="BE27" s="5">
         <v>-0.46621532922138598</v>
       </c>
-      <c r="BF27" s="3">
+      <c r="BF27" s="5">
         <v>2.3198194341462801E-2</v>
       </c>
-      <c r="BG27" s="3">
+      <c r="BG27" s="5">
         <v>7.9709509735710598E-3</v>
       </c>
-      <c r="BH27" s="3">
+      <c r="BH27" s="5">
         <v>1.21558568412241E-2</v>
       </c>
-      <c r="BI27" s="3">
+      <c r="BI27" s="5">
         <v>-3.4980900192474698E-2</v>
       </c>
-      <c r="BJ27" s="3">
+      <c r="BJ27" s="5">
         <v>-1.98031428710426E-3</v>
       </c>
-      <c r="BK27" s="3">
+      <c r="BK27" s="5">
         <v>-0.107416410793852</v>
       </c>
-      <c r="BL27" s="3">
+      <c r="BL27" s="5">
         <v>-0.40653757624814002</v>
       </c>
-      <c r="BM27" s="3">
+      <c r="BM27" s="5">
         <v>0.14114114048337001</v>
       </c>
-      <c r="BN27" s="3">
+      <c r="BN27" s="5">
         <v>0.40217930480935599</v>
       </c>
     </row>
@@ -6493,199 +6500,199 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>7.7201902756765098E-2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>0.16437843903059701</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>0.11349353356191499</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="5">
         <v>0.137508962965424</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
         <v>-0.149570789996887</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="5">
         <v>0.31765283036344599</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="5">
         <v>-0.28450146438474599</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="5">
         <v>-0.286547602919839</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="5">
         <v>0.31483863068451801</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="5">
         <v>0.33371285799549699</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="5">
         <v>0.20496595545023599</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="5">
         <v>0.391386286748651</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="5">
         <v>0.39166495818112901</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="5">
         <v>0.30061359500580098</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="5">
         <v>0.31801002611000001</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="5">
         <v>-0.16954688642868099</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="5">
         <v>0.358453884058621</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="5">
         <v>0.35946556040578898</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="5">
         <v>-0.166920910026571</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="5">
         <v>0.30798779503135498</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="5">
         <v>0.325664239652321</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="5">
         <v>-9.2563351923391698E-2</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28" s="5">
         <v>0.45127994161912199</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y28" s="5">
         <v>-0.33676537490198999</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z28" s="5">
         <v>-0.34959587498780897</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA28" s="5">
         <v>-6.7821927989222403E-2</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AB28" s="5">
         <v>1</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AC28" s="5">
         <v>-0.29806120209551301</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AD28" s="5">
         <v>-0.30235653191522799</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AE28" s="5">
         <v>0.107798638617466</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AF28" s="5">
         <v>-0.21637354362407099</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AG28" s="5">
         <v>0.31002999300884099</v>
       </c>
-      <c r="AH28" s="3">
+      <c r="AH28" s="5">
         <v>0.32097207367705299</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AI28" s="5">
         <v>-0.13671256888678601</v>
       </c>
-      <c r="AJ28" s="3">
+      <c r="AJ28" s="5">
         <v>-0.11365862423463</v>
       </c>
-      <c r="AK28" s="3">
+      <c r="AK28" s="5">
         <v>-0.144558845307452</v>
       </c>
-      <c r="AL28" s="3">
+      <c r="AL28" s="5">
         <v>-8.1398485913071403E-2</v>
       </c>
-      <c r="AM28" s="3">
+      <c r="AM28" s="5">
         <v>7.3120384490603804E-2</v>
       </c>
-      <c r="AN28" s="3">
+      <c r="AN28" s="5">
         <v>7.0413401454870794E-2</v>
       </c>
-      <c r="AO28" s="3">
+      <c r="AO28" s="5">
         <v>0.20446020307736701</v>
       </c>
-      <c r="AP28" s="3">
+      <c r="AP28" s="5">
         <v>-0.16829250333002299</v>
       </c>
-      <c r="AQ28" s="3">
+      <c r="AQ28" s="5">
         <v>-0.22413138486422299</v>
       </c>
-      <c r="AR28" s="3">
+      <c r="AR28" s="5">
         <v>-0.21483009796081301</v>
       </c>
-      <c r="AS28" s="3">
+      <c r="AS28" s="5">
         <v>-9.6814814317606704E-2</v>
       </c>
-      <c r="AT28" s="3">
+      <c r="AT28" s="5">
         <v>0.203303753169229</v>
       </c>
-      <c r="AU28" s="3">
+      <c r="AU28" s="5">
         <v>-0.209992765633748</v>
       </c>
-      <c r="AV28" s="3">
+      <c r="AV28" s="5">
         <v>-0.218799606853845</v>
       </c>
-      <c r="AW28" s="3">
+      <c r="AW28" s="5">
         <v>-0.18971570932422699</v>
       </c>
-      <c r="AX28" s="3">
+      <c r="AX28" s="5">
         <v>0.14622702878890401</v>
       </c>
-      <c r="AY28" s="3">
+      <c r="AY28" s="5">
         <v>-0.15236861307841901</v>
       </c>
-      <c r="AZ28" s="3">
+      <c r="AZ28" s="5">
         <v>-0.15562781903544601</v>
       </c>
-      <c r="BA28" s="3">
+      <c r="BA28" s="5">
         <v>-0.19239885565891299</v>
       </c>
-      <c r="BB28" s="3">
+      <c r="BB28" s="5">
         <v>-6.5901785001888896E-2</v>
       </c>
-      <c r="BC28" s="3">
+      <c r="BC28" s="5">
         <v>-3.2601208816685399E-2</v>
       </c>
-      <c r="BD28" s="3">
+      <c r="BD28" s="5">
         <v>-3.79683663217237E-2</v>
       </c>
-      <c r="BE28" s="3">
+      <c r="BE28" s="5">
         <v>9.8218014672719692E-3</v>
       </c>
-      <c r="BF28" s="3">
+      <c r="BF28" s="5">
         <v>-0.341752048790609</v>
       </c>
-      <c r="BG28" s="3">
+      <c r="BG28" s="5">
         <v>-0.106758189337223</v>
       </c>
-      <c r="BH28" s="3">
+      <c r="BH28" s="5">
         <v>-0.113885758896645</v>
       </c>
-      <c r="BI28" s="3">
+      <c r="BI28" s="5">
         <v>0.124701698151476</v>
       </c>
-      <c r="BJ28" s="3">
+      <c r="BJ28" s="5">
         <v>0.346217123553408</v>
       </c>
-      <c r="BK28" s="3">
+      <c r="BK28" s="5">
         <v>0.32509370585594499</v>
       </c>
-      <c r="BL28" s="3">
+      <c r="BL28" s="5">
         <v>0.45472524400227499</v>
       </c>
-      <c r="BM28" s="3">
+      <c r="BM28" s="5">
         <v>4.7588100771841502E-2</v>
       </c>
-      <c r="BN28" s="3">
+      <c r="BN28" s="5">
         <v>-0.261634448062252</v>
       </c>
     </row>
@@ -6693,199 +6700,199 @@
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>-1.2235274170876101E-2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>-0.414445139917755</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>-0.10580952254847199</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>-8.7635165766764195E-2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="5">
         <v>0.106649959475463</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="5">
         <v>0.107989313425185</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="5">
         <v>0.98538888834733096</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="5">
         <v>0.98520046906742997</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="5">
         <v>-0.78600548267408199</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="5">
         <v>-0.77708462799092304</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="5">
         <v>0.17710996382649699</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="5">
         <v>-0.305003980107101</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="5">
         <v>-0.30544289651140699</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="5">
         <v>-0.77021112641451905</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="5">
         <v>-0.76280982329858704</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="5">
         <v>0.25612934915987801</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="5">
         <v>-0.26618254739943598</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="5">
         <v>-0.27662012590608598</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="5">
         <v>0.26216307502422398</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="5">
         <v>-0.77150640952360905</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="5">
         <v>-0.76392851215292101</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="5">
         <v>1.7129081618172001E-2</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="5">
         <v>-0.20372903296325701</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="5">
         <v>0.94185216819014295</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="5">
         <v>0.93727211413950495</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="5">
         <v>0.12213898304576599</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB29" s="5">
         <v>-0.29806120209551301</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC29" s="5">
         <v>1</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AD29" s="5">
         <v>0.99954656456132596</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AE29" s="5">
         <v>-7.3754807973138298E-2</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AF29" s="5">
         <v>-0.29356930865089098</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AG29" s="5">
         <v>-0.90259578148837205</v>
       </c>
-      <c r="AH29" s="3">
+      <c r="AH29" s="5">
         <v>-0.90072087936565703</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AI29" s="5">
         <v>0.52111137080601699</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AJ29" s="5">
         <v>0.53050649242043102</v>
       </c>
-      <c r="AK29" s="3">
+      <c r="AK29" s="5">
         <v>5.4881804772004397E-2</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AL29" s="5">
         <v>-0.39749671380878199</v>
       </c>
-      <c r="AM29" s="3">
+      <c r="AM29" s="5">
         <v>-0.17251541988270599</v>
       </c>
-      <c r="AN29" s="3">
+      <c r="AN29" s="5">
         <v>-0.174710704812224</v>
       </c>
-      <c r="AO29" s="3">
+      <c r="AO29" s="5">
         <v>-0.125644649108927</v>
       </c>
-      <c r="AP29" s="3">
+      <c r="AP29" s="5">
         <v>0.37757851559581301</v>
       </c>
-      <c r="AQ29" s="3">
+      <c r="AQ29" s="5">
         <v>0.894894928198819</v>
       </c>
-      <c r="AR29" s="3">
+      <c r="AR29" s="5">
         <v>0.89624395982350202</v>
       </c>
-      <c r="AS29" s="3">
+      <c r="AS29" s="5">
         <v>-1.14172559906646E-2</v>
       </c>
-      <c r="AT29" s="3">
+      <c r="AT29" s="5">
         <v>-0.47730193430684997</v>
       </c>
-      <c r="AU29" s="3">
+      <c r="AU29" s="5">
         <v>0.53719493905913396</v>
       </c>
-      <c r="AV29" s="3">
+      <c r="AV29" s="5">
         <v>0.53265747862020196</v>
       </c>
-      <c r="AW29" s="3">
+      <c r="AW29" s="5">
         <v>4.1874460863545002E-2</v>
       </c>
-      <c r="AX29" s="3">
+      <c r="AX29" s="5">
         <v>-0.16909183886689899</v>
       </c>
-      <c r="AY29" s="3">
+      <c r="AY29" s="5">
         <v>0.40516587035923302</v>
       </c>
-      <c r="AZ29" s="3">
+      <c r="AZ29" s="5">
         <v>0.40265393011287798</v>
       </c>
-      <c r="BA29" s="3">
+      <c r="BA29" s="5">
         <v>3.03770509698757E-2</v>
       </c>
-      <c r="BB29" s="3">
+      <c r="BB29" s="5">
         <v>-0.39806730761227599</v>
       </c>
-      <c r="BC29" s="3">
+      <c r="BC29" s="5">
         <v>2.8276932270004801E-2</v>
       </c>
-      <c r="BD29" s="3">
+      <c r="BD29" s="5">
         <v>2.4396009842840401E-2</v>
       </c>
-      <c r="BE29" s="3">
+      <c r="BE29" s="5">
         <v>-6.7649640876422903E-2</v>
       </c>
-      <c r="BF29" s="3">
+      <c r="BF29" s="5">
         <v>0.48657860644766499</v>
       </c>
-      <c r="BG29" s="3">
+      <c r="BG29" s="5">
         <v>0.45554296636431002</v>
       </c>
-      <c r="BH29" s="3">
+      <c r="BH29" s="5">
         <v>0.451772657958246</v>
       </c>
-      <c r="BI29" s="3">
+      <c r="BI29" s="5">
         <v>-0.245736507026107</v>
       </c>
-      <c r="BJ29" s="3">
+      <c r="BJ29" s="5">
         <v>-0.387709349433768</v>
       </c>
-      <c r="BK29" s="3">
+      <c r="BK29" s="5">
         <v>-0.78358346039887095</v>
       </c>
-      <c r="BL29" s="3">
+      <c r="BL29" s="5">
         <v>-0.170727413644569</v>
       </c>
-      <c r="BM29" s="3">
+      <c r="BM29" s="5">
         <v>-0.62349090281780195</v>
       </c>
-      <c r="BN29" s="3">
+      <c r="BN29" s="5">
         <v>0.10992220105366</v>
       </c>
     </row>
@@ -6893,199 +6900,199 @@
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>-1.55632831921345E-2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>-0.41034546495231899</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>-0.103330308708971</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <v>-9.1231860487630295E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="5">
         <v>0.109599930119178</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="5">
         <v>0.106404165567204</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="5">
         <v>0.98504782167218097</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="5">
         <v>0.98529190873936101</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="5">
         <v>-0.78455758409584098</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="5">
         <v>-0.77996079353180503</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="5">
         <v>0.17410070941099801</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="5">
         <v>-0.30685882026491701</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="5">
         <v>-0.30728911034038803</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="5">
         <v>-0.76869446143338505</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="5">
         <v>-0.76522181748741702</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="5">
         <v>0.25602931119934902</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="5">
         <v>-0.26827989471422597</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="5">
         <v>-0.278823334660667</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="5">
         <v>0.26199775600853198</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="5">
         <v>-0.76998299168206896</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="5">
         <v>-0.76639414223909796</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="5">
         <v>2.1376575448161399E-2</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X30" s="5">
         <v>-0.20197264397581199</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y30" s="5">
         <v>0.94121464378265596</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z30" s="5">
         <v>0.93949368570748004</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA30" s="5">
         <v>0.124624454348676</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AB30" s="5">
         <v>-0.30235653191522799</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AC30" s="5">
         <v>0.99954656456132596</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AD30" s="5">
         <v>1</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AE30" s="5">
         <v>-7.8291507808425906E-2</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AF30" s="5">
         <v>-0.29073757239263198</v>
       </c>
-      <c r="AG30" s="3">
+      <c r="AG30" s="5">
         <v>-0.90130139126277198</v>
       </c>
-      <c r="AH30" s="3">
+      <c r="AH30" s="5">
         <v>-0.90173004781717703</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AI30" s="5">
         <v>0.52289955082385398</v>
       </c>
-      <c r="AJ30" s="3">
+      <c r="AJ30" s="5">
         <v>0.52692798767939297</v>
       </c>
-      <c r="AK30" s="3">
+      <c r="AK30" s="5">
         <v>5.4030071992397503E-2</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AL30" s="5">
         <v>-0.39304530989095898</v>
       </c>
-      <c r="AM30" s="3">
+      <c r="AM30" s="5">
         <v>-0.17438327692259201</v>
       </c>
-      <c r="AN30" s="3">
+      <c r="AN30" s="5">
         <v>-0.175887537222261</v>
       </c>
-      <c r="AO30" s="3">
+      <c r="AO30" s="5">
         <v>-0.126566030072398</v>
       </c>
-      <c r="AP30" s="3">
+      <c r="AP30" s="5">
         <v>0.37423093548092301</v>
       </c>
-      <c r="AQ30" s="3">
+      <c r="AQ30" s="5">
         <v>0.89558816586416001</v>
       </c>
-      <c r="AR30" s="3">
+      <c r="AR30" s="5">
         <v>0.89489975949196698</v>
       </c>
-      <c r="AS30" s="3">
+      <c r="AS30" s="5">
         <v>-1.14806301769146E-2</v>
       </c>
-      <c r="AT30" s="3">
+      <c r="AT30" s="5">
         <v>-0.472881674972219</v>
       </c>
-      <c r="AU30" s="3">
+      <c r="AU30" s="5">
         <v>0.53610732553058205</v>
       </c>
-      <c r="AV30" s="3">
+      <c r="AV30" s="5">
         <v>0.53361955895487501</v>
       </c>
-      <c r="AW30" s="3">
+      <c r="AW30" s="5">
         <v>4.5889863084159203E-2</v>
       </c>
-      <c r="AX30" s="3">
+      <c r="AX30" s="5">
         <v>-0.16903950618809099</v>
       </c>
-      <c r="AY30" s="3">
+      <c r="AY30" s="5">
         <v>0.40587864284562097</v>
       </c>
-      <c r="AZ30" s="3">
+      <c r="AZ30" s="5">
         <v>0.40418916354836698</v>
       </c>
-      <c r="BA30" s="3">
+      <c r="BA30" s="5">
         <v>3.0616892715094001E-2</v>
       </c>
-      <c r="BB30" s="3">
+      <c r="BB30" s="5">
         <v>-0.392646574232909</v>
       </c>
-      <c r="BC30" s="3">
+      <c r="BC30" s="5">
         <v>2.6595564810382399E-2</v>
       </c>
-      <c r="BD30" s="3">
+      <c r="BD30" s="5">
         <v>2.40410385371185E-2</v>
       </c>
-      <c r="BE30" s="3">
+      <c r="BE30" s="5">
         <v>-6.5760884722083204E-2</v>
       </c>
-      <c r="BF30" s="3">
+      <c r="BF30" s="5">
         <v>0.48332079420061602</v>
       </c>
-      <c r="BG30" s="3">
+      <c r="BG30" s="5">
         <v>0.45421733849298701</v>
       </c>
-      <c r="BH30" s="3">
+      <c r="BH30" s="5">
         <v>0.45215078615792398</v>
       </c>
-      <c r="BI30" s="3">
+      <c r="BI30" s="5">
         <v>-0.24144690778233599</v>
       </c>
-      <c r="BJ30" s="3">
+      <c r="BJ30" s="5">
         <v>-0.37910536752021301</v>
       </c>
-      <c r="BK30" s="3">
+      <c r="BK30" s="5">
         <v>-0.78429412057743897</v>
       </c>
-      <c r="BL30" s="3">
+      <c r="BL30" s="5">
         <v>-0.17399343501615999</v>
       </c>
-      <c r="BM30" s="3">
+      <c r="BM30" s="5">
         <v>-0.62230775390387105</v>
       </c>
-      <c r="BN30" s="3">
+      <c r="BN30" s="5">
         <v>0.107409194407212</v>
       </c>
     </row>
@@ -7093,199 +7100,199 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>-1.2293901232326E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>-6.3743742562266101E-2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>-0.20241713404665401</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <v>-0.17271384917972599</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="5">
         <v>-0.78344520286310604</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="5">
         <v>-2.1754690867079401E-2</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="5">
         <v>-6.7377651789282095E-2</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="5">
         <v>-6.95369659490504E-2</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="5">
         <v>1.9773124714026799E-2</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="5">
         <v>4.0729618905337099E-2</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="5">
         <v>9.1561215338631097E-2</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="5">
         <v>0.50348584120472095</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="5">
         <v>0.50296266161645997</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="5">
         <v>3.6841901265963701E-3</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="5">
         <v>2.26649634857943E-2</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="5">
         <v>3.3048882663333601E-3</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="5">
         <v>0.53007255417547605</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="5">
         <v>0.52401642646824598</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="5">
         <v>3.13148337809148E-3</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="5">
         <v>-4.3318019687267201E-3</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="5">
         <v>1.48959686722281E-2</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="5">
         <v>-0.56013273981414802</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X31" s="5">
         <v>-7.6948105303204402E-3</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y31" s="5">
         <v>-6.6287646304659706E-2</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="Z31" s="5">
         <v>-8.0342248244338305E-2</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="AA31" s="5">
         <v>-0.662941162174849</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AB31" s="5">
         <v>0.107798638617466</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AC31" s="5">
         <v>-7.3754807973138298E-2</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AD31" s="5">
         <v>-7.8291507808425906E-2</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AE31" s="5">
         <v>1</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AF31" s="5">
         <v>1.4064815646948101E-2</v>
       </c>
-      <c r="AG31" s="3">
+      <c r="AG31" s="5">
         <v>5.6671547199243499E-2</v>
       </c>
-      <c r="AH31" s="3">
+      <c r="AH31" s="5">
         <v>6.8110490921826597E-2</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AI31" s="5">
         <v>-0.19084779204406699</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AJ31" s="5">
         <v>-0.16276669505413799</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AK31" s="5">
         <v>0.357270037674705</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AL31" s="5">
         <v>-3.7502997874813003E-2</v>
       </c>
-      <c r="AM31" s="3">
+      <c r="AM31" s="5">
         <v>0.204405173485008</v>
       </c>
-      <c r="AN31" s="3">
+      <c r="AN31" s="5">
         <v>0.20124649896262001</v>
       </c>
-      <c r="AO31" s="3">
+      <c r="AO31" s="5">
         <v>-6.6704629315886194E-2</v>
       </c>
-      <c r="AP31" s="3">
+      <c r="AP31" s="5">
         <v>-7.7792584490067304E-2</v>
       </c>
-      <c r="AQ31" s="3">
+      <c r="AQ31" s="5">
         <v>-0.16296839317450501</v>
       </c>
-      <c r="AR31" s="3">
+      <c r="AR31" s="5">
         <v>-0.15232515596834301</v>
       </c>
-      <c r="AS31" s="3">
+      <c r="AS31" s="5">
         <v>-0.324116880199392</v>
       </c>
-      <c r="AT31" s="3">
+      <c r="AT31" s="5">
         <v>-5.5665581741618099E-2</v>
       </c>
-      <c r="AU31" s="3">
+      <c r="AU31" s="5">
         <v>2.6102213417814601E-2</v>
       </c>
-      <c r="AV31" s="3">
+      <c r="AV31" s="5">
         <v>1.6290122397574301E-2</v>
       </c>
-      <c r="AW31" s="3">
+      <c r="AW31" s="5">
         <v>-9.9630369978899094E-3</v>
       </c>
-      <c r="AX31" s="3">
+      <c r="AX31" s="5">
         <v>8.8036704752476602E-2</v>
       </c>
-      <c r="AY31" s="3">
+      <c r="AY31" s="5">
         <v>-5.1018439613950799E-2</v>
       </c>
-      <c r="AZ31" s="3">
+      <c r="AZ31" s="5">
         <v>-5.4969758842497302E-2</v>
       </c>
-      <c r="BA31" s="3">
+      <c r="BA31" s="5">
         <v>0.34707663608002498</v>
       </c>
-      <c r="BB31" s="3">
+      <c r="BB31" s="5">
         <v>-6.5346670578165103E-3</v>
       </c>
-      <c r="BC31" s="3">
+      <c r="BC31" s="5">
         <v>3.4135279807116399E-2</v>
       </c>
-      <c r="BD31" s="3">
+      <c r="BD31" s="5">
         <v>2.77884073095486E-2</v>
       </c>
-      <c r="BE31" s="3">
+      <c r="BE31" s="5">
         <v>-4.8241956809171802E-2</v>
       </c>
-      <c r="BF31" s="3">
+      <c r="BF31" s="5">
         <v>6.1183388197514899E-2</v>
       </c>
-      <c r="BG31" s="3">
+      <c r="BG31" s="5">
         <v>4.9141848926133602E-2</v>
       </c>
-      <c r="BH31" s="3">
+      <c r="BH31" s="5">
         <v>4.10560164219895E-2</v>
       </c>
-      <c r="BI31" s="3">
+      <c r="BI31" s="5">
         <v>-0.16247364215255999</v>
       </c>
-      <c r="BJ31" s="3">
+      <c r="BJ31" s="5">
         <v>3.1492771439261998E-2</v>
       </c>
-      <c r="BK31" s="3">
+      <c r="BK31" s="5">
         <v>3.0304035720730899E-2</v>
       </c>
-      <c r="BL31" s="3">
+      <c r="BL31" s="5">
         <v>0.49113567753347998</v>
       </c>
-      <c r="BM31" s="3">
+      <c r="BM31" s="5">
         <v>-0.25175595048628502</v>
       </c>
-      <c r="BN31" s="3">
+      <c r="BN31" s="5">
         <v>-4.3359482268389503E-2</v>
       </c>
     </row>
@@ -7293,199 +7300,199 @@
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>-0.27000765690898898</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>0.128015953572955</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>0.12586139947488001</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <v>0.102262982825141</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>-4.8113087670193198E-2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="5">
         <v>-0.91281103062430202</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="5">
         <v>-0.30440016567367001</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="5">
         <v>-0.30307485907241699</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="5">
         <v>0.319182977730393</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="5">
         <v>0.30412551113999198</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="5">
         <v>-0.30417958010262702</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="5">
         <v>0.106786716168912</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="5">
         <v>0.107158817559391</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="5">
         <v>0.31910524130580298</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="5">
         <v>0.30574038155747701</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="5">
         <v>-0.26835116630005501</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="5">
         <v>4.0923316997994702E-2</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="5">
         <v>5.6000901436835303E-2</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="5">
         <v>-0.26850068684669598</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="5">
         <v>0.31011654904046199</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="5">
         <v>0.29646827650688201</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="5">
         <v>6.1919624881364398E-2</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="5">
         <v>-0.34528995097230702</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="5">
         <v>-0.25829704468572301</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="5">
         <v>-0.24837136487092101</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="5">
         <v>-0.11404328615162899</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="5">
         <v>-0.21637354362407099</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="5">
         <v>-0.29356930865089098</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="5">
         <v>-0.29073757239263198</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AE32" s="5">
         <v>1.4064815646948101E-2</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AF32" s="5">
         <v>1</v>
       </c>
-      <c r="AG32" s="3">
+      <c r="AG32" s="5">
         <v>0.29016001790662299</v>
       </c>
-      <c r="AH32" s="3">
+      <c r="AH32" s="5">
         <v>0.28287943672156002</v>
       </c>
-      <c r="AI32" s="3">
+      <c r="AI32" s="5">
         <v>-0.22808661274606401</v>
       </c>
-      <c r="AJ32" s="3">
+      <c r="AJ32" s="5">
         <v>-0.24581054723635601</v>
       </c>
-      <c r="AK32" s="3">
+      <c r="AK32" s="5">
         <v>5.2931334835589596E-3</v>
       </c>
-      <c r="AL32" s="3">
+      <c r="AL32" s="5">
         <v>0.914212279319215</v>
       </c>
-      <c r="AM32" s="3">
+      <c r="AM32" s="5">
         <v>0.100235805478241</v>
       </c>
-      <c r="AN32" s="3">
+      <c r="AN32" s="5">
         <v>0.102982079380137</v>
       </c>
-      <c r="AO32" s="3">
+      <c r="AO32" s="5">
         <v>9.6202823184887695E-2</v>
       </c>
-      <c r="AP32" s="3">
+      <c r="AP32" s="5">
         <v>-0.71011339839745502</v>
       </c>
-      <c r="AQ32" s="3">
+      <c r="AQ32" s="5">
         <v>-0.228926947118993</v>
       </c>
-      <c r="AR32" s="3">
+      <c r="AR32" s="5">
         <v>-0.23554428431826999</v>
       </c>
-      <c r="AS32" s="3">
+      <c r="AS32" s="5">
         <v>-2.2743151289921801E-2</v>
       </c>
-      <c r="AT32" s="3">
+      <c r="AT32" s="5">
         <v>0.47261657009557401</v>
       </c>
-      <c r="AU32" s="3">
+      <c r="AU32" s="5">
         <v>-0.29811445655178398</v>
       </c>
-      <c r="AV32" s="3">
+      <c r="AV32" s="5">
         <v>-0.29107941043574598</v>
       </c>
-      <c r="AW32" s="3">
+      <c r="AW32" s="5">
         <v>0.19093082774456699</v>
       </c>
-      <c r="AX32" s="3">
+      <c r="AX32" s="5">
         <v>0.64270623754902201</v>
       </c>
-      <c r="AY32" s="3">
+      <c r="AY32" s="5">
         <v>-0.19534778206133799</v>
       </c>
-      <c r="AZ32" s="3">
+      <c r="AZ32" s="5">
         <v>-0.192149695255213</v>
       </c>
-      <c r="BA32" s="3">
+      <c r="BA32" s="5">
         <v>0.12882212530262099</v>
       </c>
-      <c r="BB32" s="3">
+      <c r="BB32" s="5">
         <v>0.89414767406406204</v>
       </c>
-      <c r="BC32" s="3">
+      <c r="BC32" s="5">
         <v>-0.15167162596904599</v>
       </c>
-      <c r="BD32" s="3">
+      <c r="BD32" s="5">
         <v>-0.146807911821178</v>
       </c>
-      <c r="BE32" s="3">
+      <c r="BE32" s="5">
         <v>0.166221482180159</v>
       </c>
-      <c r="BF32" s="3">
+      <c r="BF32" s="5">
         <v>-0.15234061935196699</v>
       </c>
-      <c r="BG32" s="3">
+      <c r="BG32" s="5">
         <v>-0.198047735018167</v>
       </c>
-      <c r="BH32" s="3">
+      <c r="BH32" s="5">
         <v>-0.192045277145347</v>
       </c>
-      <c r="BI32" s="3">
+      <c r="BI32" s="5">
         <v>0.29546953720250901</v>
       </c>
-      <c r="BJ32" s="3">
+      <c r="BJ32" s="5">
         <v>0.500166849219289</v>
       </c>
-      <c r="BK32" s="3">
+      <c r="BK32" s="5">
         <v>0.31248125719338998</v>
       </c>
-      <c r="BL32" s="3">
+      <c r="BL32" s="5">
         <v>-7.2251209743208797E-2</v>
       </c>
-      <c r="BM32" s="3">
+      <c r="BM32" s="5">
         <v>0.32379497996054601</v>
       </c>
-      <c r="BN32" s="3">
+      <c r="BN32" s="5">
         <v>-0.17626400990954999</v>
       </c>
     </row>
@@ -7493,199 +7500,199 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>-0.106163024548024</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>0.38189297197982902</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <v>0.34051256108028799</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <v>0.31762239670527298</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="5">
         <v>-9.4704907236202299E-2</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="5">
         <v>-8.3462546433605497E-2</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="5">
         <v>-0.89107765983452802</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="5">
         <v>-0.89048740911291202</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="5">
         <v>0.86631447225768798</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="5">
         <v>0.85481267699602004</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="5">
         <v>-0.219488316576849</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="5">
         <v>0.294349265917414</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="5">
         <v>0.295211287708812</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="5">
         <v>0.86469437008818895</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="5">
         <v>0.85510598287886497</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="5">
         <v>-0.34710317076618302</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="5">
         <v>0.25107379633495602</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="5">
         <v>0.26440686097789601</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="5">
         <v>-0.35325800393275802</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="5">
         <v>0.86438601756751199</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="5">
         <v>0.85457008240177001</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="5">
         <v>1.03962141687111E-3</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="5">
         <v>0.273620498686383</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="5">
         <v>-0.87835933220486895</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="5">
         <v>-0.87155155785312899</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="5">
         <v>-0.12416098402186</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="5">
         <v>0.31002999300884099</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="5">
         <v>-0.90259578148837205</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="5">
         <v>-0.90130139126277198</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AE33" s="5">
         <v>5.6671547199243499E-2</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AF33" s="5">
         <v>0.29016001790662299</v>
       </c>
-      <c r="AG33" s="3">
+      <c r="AG33" s="5">
         <v>1</v>
       </c>
-      <c r="AH33" s="3">
+      <c r="AH33" s="5">
         <v>0.99707130970952296</v>
       </c>
-      <c r="AI33" s="3">
+      <c r="AI33" s="5">
         <v>-0.27258771643628299</v>
       </c>
-      <c r="AJ33" s="3">
+      <c r="AJ33" s="5">
         <v>-0.28870402529963701</v>
       </c>
-      <c r="AK33" s="3">
+      <c r="AK33" s="5">
         <v>-8.4756758766483295E-2</v>
       </c>
-      <c r="AL33" s="3">
+      <c r="AL33" s="5">
         <v>0.415828242492496</v>
       </c>
-      <c r="AM33" s="3">
+      <c r="AM33" s="5">
         <v>-6.8432500543275904E-2</v>
       </c>
-      <c r="AN33" s="3">
+      <c r="AN33" s="5">
         <v>-6.5969970816777607E-2</v>
       </c>
-      <c r="AO33" s="3">
+      <c r="AO33" s="5">
         <v>0.111452593268966</v>
       </c>
-      <c r="AP33" s="3">
+      <c r="AP33" s="5">
         <v>-0.38653948572978297</v>
       </c>
-      <c r="AQ33" s="3">
+      <c r="AQ33" s="5">
         <v>-0.68278000747907497</v>
       </c>
-      <c r="AR33" s="3">
+      <c r="AR33" s="5">
         <v>-0.68663086866313505</v>
       </c>
-      <c r="AS33" s="3">
+      <c r="AS33" s="5">
         <v>-5.9295572479663002E-2</v>
       </c>
-      <c r="AT33" s="3">
+      <c r="AT33" s="5">
         <v>0.50073083169584498</v>
       </c>
-      <c r="AU33" s="3">
+      <c r="AU33" s="5">
         <v>-0.65621900889875495</v>
       </c>
-      <c r="AV33" s="3">
+      <c r="AV33" s="5">
         <v>-0.650608849929741</v>
       </c>
-      <c r="AW33" s="3">
+      <c r="AW33" s="5">
         <v>-9.8989784797711197E-3</v>
       </c>
-      <c r="AX33" s="3">
+      <c r="AX33" s="5">
         <v>0.21618288545971401</v>
       </c>
-      <c r="AY33" s="3">
+      <c r="AY33" s="5">
         <v>-0.20110389701975001</v>
       </c>
-      <c r="AZ33" s="3">
+      <c r="AZ33" s="5">
         <v>-0.19806806658053899</v>
       </c>
-      <c r="BA33" s="3">
+      <c r="BA33" s="5">
         <v>-4.4064564039331101E-2</v>
       </c>
-      <c r="BB33" s="3">
+      <c r="BB33" s="5">
         <v>0.42989886237056801</v>
       </c>
-      <c r="BC33" s="3">
+      <c r="BC33" s="5">
         <v>-0.36990431328239298</v>
       </c>
-      <c r="BD33" s="3">
+      <c r="BD33" s="5">
         <v>-0.36564882827602502</v>
       </c>
-      <c r="BE33" s="3">
+      <c r="BE33" s="5">
         <v>8.5049647341714593E-2</v>
       </c>
-      <c r="BF33" s="3">
+      <c r="BF33" s="5">
         <v>-0.47217116664527198</v>
       </c>
-      <c r="BG33" s="3">
+      <c r="BG33" s="5">
         <v>-0.53519922783541096</v>
       </c>
-      <c r="BH33" s="3">
+      <c r="BH33" s="5">
         <v>-0.53047807371915401</v>
       </c>
-      <c r="BI33" s="3">
+      <c r="BI33" s="5">
         <v>0.234992514281673</v>
       </c>
-      <c r="BJ33" s="3">
+      <c r="BJ33" s="5">
         <v>0.37512513056923802</v>
       </c>
-      <c r="BK33" s="3">
+      <c r="BK33" s="5">
         <v>0.86281014167324199</v>
       </c>
-      <c r="BL33" s="3">
+      <c r="BL33" s="5">
         <v>0.13828673128002</v>
       </c>
-      <c r="BM33" s="3">
+      <c r="BM33" s="5">
         <v>0.71156506693258803</v>
       </c>
-      <c r="BN33" s="3">
+      <c r="BN33" s="5">
         <v>-0.243739452194326</v>
       </c>
     </row>
@@ -7693,203 +7700,203 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>-9.83444693631529E-2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>0.37120295939039899</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>0.33547007330914702</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <v>0.328021293933696</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="5">
         <v>-0.102127488503428</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="5">
         <v>-7.9273503874083204E-2</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="5">
         <v>-0.88950843849612404</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="5">
         <v>-0.89001679538463696</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="5">
         <v>0.86292309985117299</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="5">
         <v>0.86241403357498903</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="5">
         <v>-0.21202877762077499</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="5">
         <v>0.29895466672653498</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="5">
         <v>0.29979697198067501</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="5">
         <v>0.86120866131468099</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="5">
         <v>0.86160853037370599</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="5">
         <v>-0.34729965805672802</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="5">
         <v>0.25627922540285603</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="5">
         <v>0.269895649654047</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="5">
         <v>-0.35328788153822199</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34" s="5">
         <v>0.86087408570559598</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34" s="5">
         <v>0.86119985635626395</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="5">
         <v>-9.6678797196228603E-3</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="5">
         <v>0.26949555524001101</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y34" s="5">
         <v>-0.87621273236365105</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Z34" s="5">
         <v>-0.87667030902811305</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA34" s="5">
         <v>-0.13047506874314899</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AB34" s="5">
         <v>0.32097207367705299</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AC34" s="5">
         <v>-0.90072087936565703</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AD34" s="5">
         <v>-0.90173004781717703</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AE34" s="5">
         <v>6.8110490921826597E-2</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AF34" s="5">
         <v>0.28287943672156002</v>
       </c>
-      <c r="AG34" s="3">
+      <c r="AG34" s="5">
         <v>0.99707130970952296</v>
       </c>
-      <c r="AH34" s="3">
+      <c r="AH34" s="5">
         <v>1</v>
       </c>
-      <c r="AI34" s="3">
+      <c r="AI34" s="5">
         <v>-0.27567861743128402</v>
       </c>
-      <c r="AJ34" s="3">
+      <c r="AJ34" s="5">
         <v>-0.27817123036762098</v>
       </c>
-      <c r="AK34" s="3">
+      <c r="AK34" s="5">
         <v>-8.2742597240271595E-2</v>
       </c>
-      <c r="AL34" s="3">
+      <c r="AL34" s="5">
         <v>0.40452525673685302</v>
       </c>
-      <c r="AM34" s="3">
+      <c r="AM34" s="5">
         <v>-6.5032189348370503E-2</v>
       </c>
-      <c r="AN34" s="3">
+      <c r="AN34" s="5">
         <v>-6.4327337371838197E-2</v>
       </c>
-      <c r="AO34" s="3">
+      <c r="AO34" s="5">
         <v>0.113696322345406</v>
       </c>
-      <c r="AP34" s="3">
+      <c r="AP34" s="5">
         <v>-0.37799818196657098</v>
       </c>
-      <c r="AQ34" s="3">
+      <c r="AQ34" s="5">
         <v>-0.68321404996859703</v>
       </c>
-      <c r="AR34" s="3">
+      <c r="AR34" s="5">
         <v>-0.68189287629526996</v>
       </c>
-      <c r="AS34" s="3">
+      <c r="AS34" s="5">
         <v>-5.9524206333744799E-2</v>
       </c>
-      <c r="AT34" s="3">
+      <c r="AT34" s="5">
         <v>0.48952016847518898</v>
       </c>
-      <c r="AU34" s="3">
+      <c r="AU34" s="5">
         <v>-0.65400336807334203</v>
       </c>
-      <c r="AV34" s="3">
+      <c r="AV34" s="5">
         <v>-0.65360486922245697</v>
       </c>
-      <c r="AW34" s="3">
+      <c r="AW34" s="5">
         <v>-1.9935443579810499E-2</v>
       </c>
-      <c r="AX34" s="3">
+      <c r="AX34" s="5">
         <v>0.21627637862318699</v>
       </c>
-      <c r="AY34" s="3">
+      <c r="AY34" s="5">
         <v>-0.20172324559512</v>
       </c>
-      <c r="AZ34" s="3">
+      <c r="AZ34" s="5">
         <v>-0.20077826440753499</v>
       </c>
-      <c r="BA34" s="3">
+      <c r="BA34" s="5">
         <v>-4.4744380475038002E-2</v>
       </c>
-      <c r="BB34" s="3">
+      <c r="BB34" s="5">
         <v>0.41620275581171701</v>
       </c>
-      <c r="BC34" s="3">
+      <c r="BC34" s="5">
         <v>-0.36749329071000397</v>
       </c>
-      <c r="BD34" s="3">
+      <c r="BD34" s="5">
         <v>-0.36661229985504501</v>
       </c>
-      <c r="BE34" s="3">
+      <c r="BE34" s="5">
         <v>8.0325350017293601E-2</v>
       </c>
-      <c r="BF34" s="3">
+      <c r="BF34" s="5">
         <v>-0.463709828527679</v>
       </c>
-      <c r="BG34" s="3">
+      <c r="BG34" s="5">
         <v>-0.53217716024505202</v>
       </c>
-      <c r="BH34" s="3">
+      <c r="BH34" s="5">
         <v>-0.53178774163718701</v>
       </c>
-      <c r="BI34" s="3">
+      <c r="BI34" s="5">
         <v>0.22397021712775</v>
       </c>
-      <c r="BJ34" s="3">
+      <c r="BJ34" s="5">
         <v>0.353085659948361</v>
       </c>
-      <c r="BK34" s="3">
+      <c r="BK34" s="5">
         <v>0.86490705486756803</v>
       </c>
-      <c r="BL34" s="3">
+      <c r="BL34" s="5">
         <v>0.146389333876939</v>
       </c>
-      <c r="BM34" s="3">
+      <c r="BM34" s="5">
         <v>0.708920435402567</v>
       </c>
-      <c r="BN34" s="3">
+      <c r="BN34" s="5">
         <v>-0.238056921830026</v>
       </c>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -8089,7 +8096,7 @@
         <v>-0.202550657348194</v>
       </c>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -8289,7 +8296,7 @@
         <v>-0.183830337116726</v>
       </c>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -8489,7 +8496,7 @@
         <v>0.47031085197678402</v>
       </c>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -8689,7 +8696,7 @@
         <v>-0.28405449004427902</v>
       </c>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -8889,7 +8896,7 @@
         <v>0.13066487661079701</v>
       </c>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -9089,7 +9096,7 @@
         <v>0.128674004376301</v>
       </c>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -9289,7 +9296,7 @@
         <v>-0.56753244967448702</v>
       </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -9489,7 +9496,7 @@
         <v>0.33508621737343802</v>
       </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -9689,7 +9696,7 @@
         <v>1.5616246616224801E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -9889,7 +9896,7 @@
         <v>2.1713247249078901E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -10089,7 +10096,7 @@
         <v>0.60595370378475899</v>
       </c>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -10289,7 +10296,7 @@
         <v>-0.190747542032394</v>
       </c>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -10489,7 +10496,7 @@
         <v>0.17677278788284001</v>
       </c>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -10689,7 +10696,7 @@
         <v>0.17103898390723599</v>
       </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -10889,7 +10896,7 @@
         <v>-2.1934730654438499E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -11089,7 +11096,7 @@
         <v>-0.37926607244699301</v>
       </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -11289,7 +11296,7 @@
         <v>-9.0508358482643603E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -11489,7 +11496,7 @@
         <v>-9.2988860734088505E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -11689,7 +11696,7 @@
         <v>0.36704547521099501</v>
       </c>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -11889,7 +11896,7 @@
         <v>-0.31156724879252301</v>
       </c>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -12089,7 +12096,7 @@
         <v>0.332233783805294</v>
       </c>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -12289,7 +12296,7 @@
         <v>0.32872044396792</v>
       </c>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -12489,7 +12496,7 @@
         <v>-0.49513719041668403</v>
       </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -12689,7 +12696,7 @@
         <v>0.10183902340388599</v>
       </c>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -12889,7 +12896,7 @@
         <v>0.35005622773255501</v>
       </c>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -13089,7 +13096,7 @@
         <v>0.34584751825066101</v>
       </c>
     </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -13289,7 +13296,7 @@
         <v>-0.37094341939265002</v>
       </c>
     </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -13489,7 +13496,7 @@
         <v>-0.26402452297724699</v>
       </c>
     </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -13689,7 +13696,7 @@
         <v>-0.131845906990256</v>
       </c>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -13889,7 +13896,7 @@
         <v>-0.35846796036663398</v>
       </c>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -14089,7 +14096,7 @@
         <v>7.8592733622331601E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
